--- a/物料清单汇总/所有物料10.30下午.xlsx
+++ b/物料清单汇总/所有物料10.30下午.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$112</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$113</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="409">
   <si>
     <t>Comment</t>
   </si>
@@ -622,9 +622,6 @@
   </si>
   <si>
     <t>U13</t>
-  </si>
-  <si>
-    <t>TO-263(S)-5</t>
   </si>
   <si>
     <t>SWITCHING</t>
@@ -861,10 +858,6 @@
   </si>
   <si>
     <t>Res</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>R3, R4, R5, R6, R7, R8, R9, R10, R11, R12, R13, R14, R15, R16, R17, R18</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1641,12 +1634,23 @@
     <t>支持Ti 2048卡，提供驱动开发包及其演示程序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>R3, R4, R5, R6, R7, R8, R9, R10,  R12, R13, R14, R15, R16, R17, R18</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R11,</t>
+  </si>
+  <si>
+    <t>510Ω</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1734,6 +1738,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1798,7 +1809,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1881,6 +1892,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2177,10 +2194,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DA112"/>
+  <dimension ref="A1:DA113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2198,7 +2215,7 @@
   <sheetData>
     <row r="1" spans="1:105" s="4" customFormat="1" ht="16.5" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2213,10 +2230,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
@@ -2337,7 +2354,7 @@
         <v>600</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:105" ht="16.5" customHeight="1">
@@ -2383,7 +2400,7 @@
         <v>300</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:105" ht="16.5" customHeight="1">
@@ -2406,7 +2423,7 @@
         <v>600</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:105" ht="16.5" customHeight="1">
@@ -2443,7 +2460,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>8</v>
@@ -2452,7 +2469,7 @@
         <v>300</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:105" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -2466,7 +2483,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>8</v>
@@ -2579,7 +2596,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>6</v>
@@ -2594,7 +2611,7 @@
         <v>600</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:105" ht="16.5" customHeight="1">
@@ -2602,7 +2619,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>6</v>
@@ -2625,7 +2642,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>6</v>
@@ -2671,7 +2688,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>6</v>
@@ -2714,7 +2731,7 @@
     </row>
     <row r="15" spans="1:105" ht="16.5" customHeight="1">
       <c r="A15" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>110</v>
@@ -2723,10 +2740,10 @@
         <v>6</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F15" s="12">
         <v>300</v>
@@ -2740,16 +2757,16 @@
         <v>120</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>121</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F16" s="12">
         <v>100</v>
@@ -2854,12 +2871,12 @@
       <c r="CZ16" s="7"/>
       <c r="DA16" s="7"/>
     </row>
-    <row r="17" spans="1:7" ht="16.5" customHeight="1">
+    <row r="17" spans="1:105" ht="16.5" customHeight="1">
       <c r="A17" s="13" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>154</v>
@@ -2868,7 +2885,7 @@
         <v>155</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F17" s="12">
         <v>10</v>
@@ -2877,9 +2894,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.5" customHeight="1">
+    <row r="18" spans="1:105" ht="16.5" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>40</v>
@@ -2900,7 +2917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="33.75">
+    <row r="19" spans="1:105" ht="33.75">
       <c r="A19" s="12" t="s">
         <v>39</v>
       </c>
@@ -2908,7 +2925,7 @@
         <v>60</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>61</v>
@@ -2920,10 +2937,10 @@
         <v>300</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="45">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:105" ht="45">
       <c r="A20" s="12" t="s">
         <v>39</v>
       </c>
@@ -2946,9 +2963,9 @@
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.5" customHeight="1">
+    <row r="21" spans="1:105" ht="16.5" customHeight="1">
       <c r="A21" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>66</v>
@@ -2966,10 +2983,10 @@
         <v>300</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="16.5" customHeight="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:105" ht="16.5" customHeight="1">
       <c r="A22" s="12" t="s">
         <v>39</v>
       </c>
@@ -2992,7 +3009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16.5" customHeight="1">
+    <row r="23" spans="1:105" ht="16.5" customHeight="1">
       <c r="A23" s="12" t="s">
         <v>39</v>
       </c>
@@ -3015,7 +3032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="56.25">
+    <row r="24" spans="1:105" ht="56.25">
       <c r="A24" s="12" t="s">
         <v>39</v>
       </c>
@@ -3038,7 +3055,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16.5" customHeight="1">
+    <row r="25" spans="1:105" ht="16.5" customHeight="1">
       <c r="A25" s="12" t="s">
         <v>39</v>
       </c>
@@ -3061,18 +3078,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16.5" customHeight="1">
+    <row r="26" spans="1:105" ht="16.5" customHeight="1">
       <c r="A26" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>67</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E26" s="19" t="s">
         <v>77</v>
@@ -3082,41 +3099,135 @@
       </c>
       <c r="G26" s="12"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A27" s="12" t="s">
+    <row r="27" spans="1:105" ht="16.5" customHeight="1">
+      <c r="A27" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="14"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27"/>
+      <c r="AB27"/>
+      <c r="AC27"/>
+      <c r="AD27"/>
+      <c r="AE27"/>
+      <c r="AF27"/>
+      <c r="AG27"/>
+      <c r="AH27"/>
+      <c r="AI27"/>
+      <c r="AJ27"/>
+      <c r="AK27"/>
+      <c r="AL27"/>
+      <c r="AM27"/>
+      <c r="AN27"/>
+      <c r="AO27"/>
+      <c r="AP27"/>
+      <c r="AQ27"/>
+      <c r="AR27"/>
+      <c r="AS27"/>
+      <c r="AT27"/>
+      <c r="AU27"/>
+      <c r="AV27"/>
+      <c r="AW27"/>
+      <c r="AX27"/>
+      <c r="AY27"/>
+      <c r="AZ27"/>
+      <c r="BA27"/>
+      <c r="BB27"/>
+      <c r="BC27"/>
+      <c r="BD27"/>
+      <c r="BE27"/>
+      <c r="BF27"/>
+      <c r="BG27"/>
+      <c r="BH27"/>
+      <c r="BI27"/>
+      <c r="BJ27"/>
+      <c r="BK27"/>
+      <c r="BL27"/>
+      <c r="BM27"/>
+      <c r="BN27"/>
+      <c r="BO27"/>
+      <c r="BP27"/>
+      <c r="BQ27"/>
+      <c r="BR27"/>
+      <c r="BS27"/>
+      <c r="BT27"/>
+      <c r="BU27"/>
+      <c r="BV27"/>
+      <c r="BW27"/>
+      <c r="BX27"/>
+      <c r="BY27"/>
+      <c r="BZ27"/>
+      <c r="CA27"/>
+      <c r="CB27"/>
+      <c r="CC27"/>
+      <c r="CD27"/>
+      <c r="CE27"/>
+      <c r="CF27"/>
+      <c r="CG27"/>
+      <c r="CH27"/>
+      <c r="CI27"/>
+      <c r="CJ27"/>
+      <c r="CK27"/>
+      <c r="CL27"/>
+      <c r="CM27"/>
+      <c r="CN27"/>
+      <c r="CO27"/>
+      <c r="CP27"/>
+      <c r="CQ27"/>
+      <c r="CR27"/>
+      <c r="CS27"/>
+      <c r="CT27"/>
+      <c r="CU27"/>
+      <c r="CV27"/>
+      <c r="CW27"/>
+      <c r="CX27"/>
+      <c r="CY27"/>
+      <c r="CZ27"/>
+      <c r="DA27"/>
+    </row>
+    <row r="28" spans="1:105" ht="16.5" customHeight="1">
+      <c r="A28" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B28" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="12" t="s">
         <v>241</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="12">
-        <v>300</v>
-      </c>
-      <c r="G27" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="33.75">
-      <c r="A28" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>275</v>
       </c>
       <c r="E28" s="19" t="s">
         <v>62</v>
@@ -3125,99 +3236,99 @@
         <v>300</v>
       </c>
       <c r="G28" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A29" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>399</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:105" ht="33.75">
+      <c r="A29" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>272</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>277</v>
+        <v>273</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>406</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>359</v>
+        <v>62</v>
       </c>
       <c r="F29" s="12">
         <v>300</v>
       </c>
-      <c r="G29" s="12" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A30" s="13" t="s">
-        <v>276</v>
+      <c r="G29" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:105" ht="16.5" customHeight="1">
+      <c r="A30" s="12" t="s">
+        <v>274</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F30" s="12">
         <v>300</v>
       </c>
-      <c r="G30" s="12">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="16.5" customHeight="1">
+      <c r="G30" s="12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31" spans="1:105" ht="16.5" customHeight="1">
       <c r="A31" s="13" t="s">
-        <v>39</v>
+        <v>274</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="F31" s="12">
         <v>300</v>
       </c>
       <c r="G31" s="12">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="16.5" customHeight="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:105" ht="16.5" customHeight="1">
       <c r="A32" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>172</v>
+      <c r="B32" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>279</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F32" s="12">
         <v>300</v>
       </c>
       <c r="G32" s="12">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:105" ht="16.5" customHeight="1">
@@ -3225,22 +3336,22 @@
         <v>39</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>173</v>
+        <v>280</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>406</v>
+        <v>327</v>
       </c>
       <c r="F33" s="12">
         <v>300</v>
       </c>
       <c r="G33" s="12">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:105" ht="16.5" customHeight="1">
@@ -3248,91 +3359,91 @@
         <v>39</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>279</v>
+        <v>173</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>79</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>329</v>
+        <v>404</v>
       </c>
       <c r="F34" s="12">
         <v>300</v>
       </c>
       <c r="G34" s="12">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:105" ht="16.5" customHeight="1">
       <c r="A35" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="14" t="s">
-        <v>397</v>
+      <c r="B35" s="13" t="s">
+        <v>281</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>405</v>
+        <v>175</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>327</v>
       </c>
       <c r="F35" s="12">
         <v>300</v>
       </c>
       <c r="G35" s="12">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:105" ht="16.5" customHeight="1">
       <c r="A36" s="13" t="s">
-        <v>285</v>
+        <v>39</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>360</v>
+        <v>176</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>403</v>
       </c>
       <c r="F36" s="12">
         <v>300</v>
       </c>
       <c r="G36" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:105" ht="16.5" customHeight="1">
       <c r="A37" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>286</v>
+        <v>283</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>396</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F37" s="12">
         <v>300</v>
       </c>
       <c r="G37" s="12">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:105" ht="16.5" customHeight="1">
@@ -3340,16 +3451,16 @@
         <v>39</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F38" s="12">
         <v>300</v>
@@ -3363,16 +3474,16 @@
         <v>39</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F39" s="12">
         <v>300</v>
@@ -3386,16 +3497,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F40" s="12">
         <v>300</v>
@@ -3409,16 +3520,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F41" s="12">
         <v>300</v>
@@ -3432,16 +3543,16 @@
         <v>39</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F42" s="12">
         <v>300</v>
@@ -3450,284 +3561,284 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:105" s="8" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A43" s="12" t="s">
-        <v>296</v>
+    <row r="43" spans="1:105" ht="16.5" customHeight="1">
+      <c r="A43" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>78</v>
+        <v>292</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>80</v>
+        <v>293</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>183</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>77</v>
+        <v>360</v>
       </c>
       <c r="F43" s="12">
         <v>300</v>
       </c>
-      <c r="G43" s="12"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="7"/>
-      <c r="R43" s="7"/>
-      <c r="S43" s="7"/>
-      <c r="T43" s="7"/>
-      <c r="U43" s="7"/>
-      <c r="V43" s="7"/>
-      <c r="W43" s="7"/>
-      <c r="X43" s="7"/>
-      <c r="Y43" s="7"/>
-      <c r="Z43" s="7"/>
-      <c r="AA43" s="7"/>
-      <c r="AB43" s="7"/>
-      <c r="AC43" s="7"/>
-      <c r="AD43" s="7"/>
-      <c r="AE43" s="7"/>
-      <c r="AF43" s="7"/>
-      <c r="AG43" s="7"/>
-      <c r="AH43" s="7"/>
-      <c r="AI43" s="7"/>
-      <c r="AJ43" s="7"/>
-      <c r="AK43" s="7"/>
-      <c r="AL43" s="7"/>
-      <c r="AM43" s="7"/>
-      <c r="AN43" s="7"/>
-      <c r="AO43" s="7"/>
-      <c r="AP43" s="7"/>
-      <c r="AQ43" s="7"/>
-      <c r="AR43" s="7"/>
-      <c r="AS43" s="7"/>
-      <c r="AT43" s="7"/>
-      <c r="AU43" s="7"/>
-      <c r="AV43" s="7"/>
-      <c r="AW43" s="7"/>
-      <c r="AX43" s="7"/>
-      <c r="AY43" s="7"/>
-      <c r="AZ43" s="7"/>
-      <c r="BA43" s="7"/>
-      <c r="BB43" s="7"/>
-      <c r="BC43" s="7"/>
-      <c r="BD43" s="7"/>
-      <c r="BE43" s="7"/>
-      <c r="BF43" s="7"/>
-      <c r="BG43" s="7"/>
-      <c r="BH43" s="7"/>
-      <c r="BI43" s="7"/>
-      <c r="BJ43" s="7"/>
-      <c r="BK43" s="7"/>
-      <c r="BL43" s="7"/>
-      <c r="BM43" s="7"/>
-      <c r="BN43" s="7"/>
-      <c r="BO43" s="7"/>
-      <c r="BP43" s="7"/>
-      <c r="BQ43" s="7"/>
-      <c r="BR43" s="7"/>
-      <c r="BS43" s="7"/>
-      <c r="BT43" s="7"/>
-      <c r="BU43" s="7"/>
-      <c r="BV43" s="7"/>
-      <c r="BW43" s="7"/>
-      <c r="BX43" s="7"/>
-      <c r="BY43" s="7"/>
-      <c r="BZ43" s="7"/>
-      <c r="CA43" s="7"/>
-      <c r="CB43" s="7"/>
-      <c r="CC43" s="7"/>
-      <c r="CD43" s="7"/>
-      <c r="CE43" s="7"/>
-      <c r="CF43" s="7"/>
-      <c r="CG43" s="7"/>
-      <c r="CH43" s="7"/>
-      <c r="CI43" s="7"/>
-      <c r="CJ43" s="7"/>
-      <c r="CK43" s="7"/>
-      <c r="CL43" s="7"/>
-      <c r="CM43" s="7"/>
-      <c r="CN43" s="7"/>
-      <c r="CO43" s="7"/>
-      <c r="CP43" s="7"/>
-      <c r="CQ43" s="7"/>
-      <c r="CR43" s="7"/>
-      <c r="CS43" s="7"/>
-      <c r="CT43" s="7"/>
-      <c r="CU43" s="7"/>
-      <c r="CV43" s="7"/>
-      <c r="CW43" s="7"/>
-      <c r="CX43" s="7"/>
-      <c r="CY43" s="7"/>
-      <c r="CZ43" s="7"/>
-      <c r="DA43" s="7"/>
-    </row>
-    <row r="44" spans="1:105" ht="16.5" customHeight="1">
-      <c r="A44" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>396</v>
+      <c r="G43" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:105" s="8" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A44" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>184</v>
+        <v>79</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>363</v>
+        <v>77</v>
       </c>
       <c r="F44" s="12">
         <v>300</v>
       </c>
-      <c r="G44" s="12">
-        <v>6</v>
-      </c>
+      <c r="G44" s="12"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
+      <c r="V44" s="7"/>
+      <c r="W44" s="7"/>
+      <c r="X44" s="7"/>
+      <c r="Y44" s="7"/>
+      <c r="Z44" s="7"/>
+      <c r="AA44" s="7"/>
+      <c r="AB44" s="7"/>
+      <c r="AC44" s="7"/>
+      <c r="AD44" s="7"/>
+      <c r="AE44" s="7"/>
+      <c r="AF44" s="7"/>
+      <c r="AG44" s="7"/>
+      <c r="AH44" s="7"/>
+      <c r="AI44" s="7"/>
+      <c r="AJ44" s="7"/>
+      <c r="AK44" s="7"/>
+      <c r="AL44" s="7"/>
+      <c r="AM44" s="7"/>
+      <c r="AN44" s="7"/>
+      <c r="AO44" s="7"/>
+      <c r="AP44" s="7"/>
+      <c r="AQ44" s="7"/>
+      <c r="AR44" s="7"/>
+      <c r="AS44" s="7"/>
+      <c r="AT44" s="7"/>
+      <c r="AU44" s="7"/>
+      <c r="AV44" s="7"/>
+      <c r="AW44" s="7"/>
+      <c r="AX44" s="7"/>
+      <c r="AY44" s="7"/>
+      <c r="AZ44" s="7"/>
+      <c r="BA44" s="7"/>
+      <c r="BB44" s="7"/>
+      <c r="BC44" s="7"/>
+      <c r="BD44" s="7"/>
+      <c r="BE44" s="7"/>
+      <c r="BF44" s="7"/>
+      <c r="BG44" s="7"/>
+      <c r="BH44" s="7"/>
+      <c r="BI44" s="7"/>
+      <c r="BJ44" s="7"/>
+      <c r="BK44" s="7"/>
+      <c r="BL44" s="7"/>
+      <c r="BM44" s="7"/>
+      <c r="BN44" s="7"/>
+      <c r="BO44" s="7"/>
+      <c r="BP44" s="7"/>
+      <c r="BQ44" s="7"/>
+      <c r="BR44" s="7"/>
+      <c r="BS44" s="7"/>
+      <c r="BT44" s="7"/>
+      <c r="BU44" s="7"/>
+      <c r="BV44" s="7"/>
+      <c r="BW44" s="7"/>
+      <c r="BX44" s="7"/>
+      <c r="BY44" s="7"/>
+      <c r="BZ44" s="7"/>
+      <c r="CA44" s="7"/>
+      <c r="CB44" s="7"/>
+      <c r="CC44" s="7"/>
+      <c r="CD44" s="7"/>
+      <c r="CE44" s="7"/>
+      <c r="CF44" s="7"/>
+      <c r="CG44" s="7"/>
+      <c r="CH44" s="7"/>
+      <c r="CI44" s="7"/>
+      <c r="CJ44" s="7"/>
+      <c r="CK44" s="7"/>
+      <c r="CL44" s="7"/>
+      <c r="CM44" s="7"/>
+      <c r="CN44" s="7"/>
+      <c r="CO44" s="7"/>
+      <c r="CP44" s="7"/>
+      <c r="CQ44" s="7"/>
+      <c r="CR44" s="7"/>
+      <c r="CS44" s="7"/>
+      <c r="CT44" s="7"/>
+      <c r="CU44" s="7"/>
+      <c r="CV44" s="7"/>
+      <c r="CW44" s="7"/>
+      <c r="CX44" s="7"/>
+      <c r="CY44" s="7"/>
+      <c r="CZ44" s="7"/>
+      <c r="DA44" s="7"/>
     </row>
     <row r="45" spans="1:105" ht="16.5" customHeight="1">
       <c r="A45" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>395</v>
+        <v>313</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>394</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F45" s="12">
         <v>300</v>
       </c>
       <c r="G45" s="12">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:105" ht="16.5" customHeight="1">
       <c r="A46" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="F46" s="12">
+        <v>300</v>
+      </c>
+      <c r="G46" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:105" ht="16.5" customHeight="1">
+      <c r="A47" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="B46" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="C46" s="13" t="s">
+      <c r="B47" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="C47" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="D46" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>365</v>
-      </c>
-      <c r="F46" s="12">
+      <c r="D47" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="F47" s="12">
         <v>10</v>
-      </c>
-      <c r="G46" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:105" ht="16.5" customHeight="1">
-      <c r="A47" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>386</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E47" s="19" t="s">
-        <v>328</v>
-      </c>
-      <c r="F47" s="12">
-        <v>300</v>
       </c>
       <c r="G47" s="12">
         <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:105" ht="16.5" customHeight="1">
-      <c r="A48" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>123</v>
+      <c r="A48" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>378</v>
+        <v>326</v>
       </c>
       <c r="F48" s="12">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G48" s="12">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:105" ht="16.5" customHeight="1">
       <c r="A49" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>298</v>
+        <v>122</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>390</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>6</v>
+        <v>121</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>328</v>
+        <v>376</v>
       </c>
       <c r="F49" s="12">
         <v>100</v>
       </c>
       <c r="G49" s="12">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:105" ht="16.5" customHeight="1">
       <c r="A50" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>125</v>
+        <v>295</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>296</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F50" s="12">
         <v>100</v>
       </c>
       <c r="G50" s="12">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:105" ht="16.5" customHeight="1">
@@ -3735,62 +3846,62 @@
         <v>15</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C51" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F51" s="12">
         <v>100</v>
       </c>
       <c r="G51" s="12">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:105" ht="16.5" customHeight="1">
-      <c r="A52" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>211</v>
+      <c r="A52" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>127</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="F52" s="12">
         <v>100</v>
       </c>
       <c r="G52" s="12">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:105" ht="16.5" customHeight="1">
       <c r="A53" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>358</v>
+        <v>208</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>209</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>213</v>
+        <v>121</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>379</v>
+        <v>341</v>
       </c>
       <c r="F53" s="12">
         <v>100</v>
@@ -3800,43 +3911,43 @@
       </c>
     </row>
     <row r="54" spans="1:105" ht="16.5" customHeight="1">
-      <c r="A54" s="14" t="s">
-        <v>357</v>
+      <c r="A54" s="12" t="s">
+        <v>211</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>390</v>
+        <v>356</v>
       </c>
       <c r="C54" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="F54" s="12">
         <v>100</v>
       </c>
-      <c r="D54" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="E54" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="F54" s="12">
-        <v>10</v>
-      </c>
       <c r="G54" s="12">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:105" ht="16.5" customHeight="1">
       <c r="A55" s="14" t="s">
-        <v>357</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>104</v>
+        <v>355</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>388</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F55" s="12">
         <v>10</v>
@@ -3846,20 +3957,20 @@
       </c>
     </row>
     <row r="56" spans="1:105" ht="16.5" customHeight="1">
-      <c r="A56" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>391</v>
+      <c r="A56" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>104</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F56" s="12">
         <v>10</v>
@@ -3870,88 +3981,88 @@
     </row>
     <row r="57" spans="1:105" ht="16.5" customHeight="1">
       <c r="A57" s="12" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="F57" s="12">
         <v>10</v>
       </c>
       <c r="G57" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:105" ht="16.5" customHeight="1">
+      <c r="A58" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E58" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F58" s="12">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="1:105" ht="42">
-      <c r="A58" s="13" t="s">
+      <c r="G58" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:105" ht="42">
+      <c r="A59" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B58" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="C58" s="13" t="s">
+      <c r="B59" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="D59" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="F59" s="12">
         <v>300</v>
       </c>
-      <c r="D58" s="21" t="s">
-        <v>383</v>
-      </c>
-      <c r="E58" s="19" t="s">
-        <v>388</v>
-      </c>
-      <c r="F58" s="12">
-        <v>300</v>
-      </c>
-      <c r="G58" s="12">
+      <c r="G59" s="12">
         <v>51</v>
-      </c>
-    </row>
-    <row r="59" spans="1:105" ht="16.5" customHeight="1">
-      <c r="A59" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E59" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="F59" s="12">
-        <v>100</v>
-      </c>
-      <c r="G59" s="12">
-        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:105" ht="16.5" customHeight="1">
       <c r="A60" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B60" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="B60" s="12" t="s">
-        <v>224</v>
-      </c>
       <c r="C60" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E60" s="19" t="s">
         <v>222</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="E60" s="19" t="s">
-        <v>226</v>
       </c>
       <c r="F60" s="12">
         <v>100</v>
@@ -3961,214 +4072,214 @@
       </c>
     </row>
     <row r="61" spans="1:105" ht="16.5" customHeight="1">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="E61" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="F61" s="12">
+        <v>100</v>
+      </c>
+      <c r="G61" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:105" ht="16.5" customHeight="1">
+      <c r="A62" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B62" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C62" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="F62" s="12">
+        <v>50</v>
+      </c>
+      <c r="G62" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:105" ht="16.5" customHeight="1">
+      <c r="A63" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="E63" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="F63" s="12">
+        <v>100</v>
+      </c>
+      <c r="G63" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:105" s="8" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A64" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D64" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="D61" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="E61" s="19" t="s">
-        <v>331</v>
-      </c>
-      <c r="F61" s="12">
-        <v>50</v>
-      </c>
-      <c r="G61" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:105" ht="16.5" customHeight="1">
-      <c r="A62" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="E62" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="F62" s="12">
-        <v>100</v>
-      </c>
-      <c r="G62" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:105" s="8" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A63" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="E63" s="19" t="s">
-        <v>366</v>
-      </c>
-      <c r="F63" s="12">
-        <v>10</v>
-      </c>
-      <c r="G63" s="12"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="7"/>
-      <c r="M63" s="7"/>
-      <c r="N63" s="7"/>
-      <c r="O63" s="7"/>
-      <c r="P63" s="7"/>
-      <c r="Q63" s="7"/>
-      <c r="R63" s="7"/>
-      <c r="S63" s="7"/>
-      <c r="T63" s="7"/>
-      <c r="U63" s="7"/>
-      <c r="V63" s="7"/>
-      <c r="W63" s="7"/>
-      <c r="X63" s="7"/>
-      <c r="Y63" s="7"/>
-      <c r="Z63" s="7"/>
-      <c r="AA63" s="7"/>
-      <c r="AB63" s="7"/>
-      <c r="AC63" s="7"/>
-      <c r="AD63" s="7"/>
-      <c r="AE63" s="7"/>
-      <c r="AF63" s="7"/>
-      <c r="AG63" s="7"/>
-      <c r="AH63" s="7"/>
-      <c r="AI63" s="7"/>
-      <c r="AJ63" s="7"/>
-      <c r="AK63" s="7"/>
-      <c r="AL63" s="7"/>
-      <c r="AM63" s="7"/>
-      <c r="AN63" s="7"/>
-      <c r="AO63" s="7"/>
-      <c r="AP63" s="7"/>
-      <c r="AQ63" s="7"/>
-      <c r="AR63" s="7"/>
-      <c r="AS63" s="7"/>
-      <c r="AT63" s="7"/>
-      <c r="AU63" s="7"/>
-      <c r="AV63" s="7"/>
-      <c r="AW63" s="7"/>
-      <c r="AX63" s="7"/>
-      <c r="AY63" s="7"/>
-      <c r="AZ63" s="7"/>
-      <c r="BA63" s="7"/>
-      <c r="BB63" s="7"/>
-      <c r="BC63" s="7"/>
-      <c r="BD63" s="7"/>
-      <c r="BE63" s="7"/>
-      <c r="BF63" s="7"/>
-      <c r="BG63" s="7"/>
-      <c r="BH63" s="7"/>
-      <c r="BI63" s="7"/>
-      <c r="BJ63" s="7"/>
-      <c r="BK63" s="7"/>
-      <c r="BL63" s="7"/>
-      <c r="BM63" s="7"/>
-      <c r="BN63" s="7"/>
-      <c r="BO63" s="7"/>
-      <c r="BP63" s="7"/>
-      <c r="BQ63" s="7"/>
-      <c r="BR63" s="7"/>
-      <c r="BS63" s="7"/>
-      <c r="BT63" s="7"/>
-      <c r="BU63" s="7"/>
-      <c r="BV63" s="7"/>
-      <c r="BW63" s="7"/>
-      <c r="BX63" s="7"/>
-      <c r="BY63" s="7"/>
-      <c r="BZ63" s="7"/>
-      <c r="CA63" s="7"/>
-      <c r="CB63" s="7"/>
-      <c r="CC63" s="7"/>
-      <c r="CD63" s="7"/>
-      <c r="CE63" s="7"/>
-      <c r="CF63" s="7"/>
-      <c r="CG63" s="7"/>
-      <c r="CH63" s="7"/>
-      <c r="CI63" s="7"/>
-      <c r="CJ63" s="7"/>
-      <c r="CK63" s="7"/>
-      <c r="CL63" s="7"/>
-      <c r="CM63" s="7"/>
-      <c r="CN63" s="7"/>
-      <c r="CO63" s="7"/>
-      <c r="CP63" s="7"/>
-      <c r="CQ63" s="7"/>
-      <c r="CR63" s="7"/>
-      <c r="CS63" s="7"/>
-      <c r="CT63" s="7"/>
-      <c r="CU63" s="7"/>
-      <c r="CV63" s="7"/>
-      <c r="CW63" s="7"/>
-      <c r="CX63" s="7"/>
-      <c r="CY63" s="7"/>
-      <c r="CZ63" s="7"/>
-      <c r="DA63" s="7"/>
-    </row>
-    <row r="64" spans="1:105" ht="16.5" customHeight="1">
-      <c r="A64" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>136</v>
-      </c>
       <c r="E64" s="19" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F64" s="12">
         <v>10</v>
       </c>
-      <c r="G64" s="12">
-        <v>12</v>
-      </c>
+      <c r="G64" s="12"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="7"/>
+      <c r="R64" s="7"/>
+      <c r="S64" s="7"/>
+      <c r="T64" s="7"/>
+      <c r="U64" s="7"/>
+      <c r="V64" s="7"/>
+      <c r="W64" s="7"/>
+      <c r="X64" s="7"/>
+      <c r="Y64" s="7"/>
+      <c r="Z64" s="7"/>
+      <c r="AA64" s="7"/>
+      <c r="AB64" s="7"/>
+      <c r="AC64" s="7"/>
+      <c r="AD64" s="7"/>
+      <c r="AE64" s="7"/>
+      <c r="AF64" s="7"/>
+      <c r="AG64" s="7"/>
+      <c r="AH64" s="7"/>
+      <c r="AI64" s="7"/>
+      <c r="AJ64" s="7"/>
+      <c r="AK64" s="7"/>
+      <c r="AL64" s="7"/>
+      <c r="AM64" s="7"/>
+      <c r="AN64" s="7"/>
+      <c r="AO64" s="7"/>
+      <c r="AP64" s="7"/>
+      <c r="AQ64" s="7"/>
+      <c r="AR64" s="7"/>
+      <c r="AS64" s="7"/>
+      <c r="AT64" s="7"/>
+      <c r="AU64" s="7"/>
+      <c r="AV64" s="7"/>
+      <c r="AW64" s="7"/>
+      <c r="AX64" s="7"/>
+      <c r="AY64" s="7"/>
+      <c r="AZ64" s="7"/>
+      <c r="BA64" s="7"/>
+      <c r="BB64" s="7"/>
+      <c r="BC64" s="7"/>
+      <c r="BD64" s="7"/>
+      <c r="BE64" s="7"/>
+      <c r="BF64" s="7"/>
+      <c r="BG64" s="7"/>
+      <c r="BH64" s="7"/>
+      <c r="BI64" s="7"/>
+      <c r="BJ64" s="7"/>
+      <c r="BK64" s="7"/>
+      <c r="BL64" s="7"/>
+      <c r="BM64" s="7"/>
+      <c r="BN64" s="7"/>
+      <c r="BO64" s="7"/>
+      <c r="BP64" s="7"/>
+      <c r="BQ64" s="7"/>
+      <c r="BR64" s="7"/>
+      <c r="BS64" s="7"/>
+      <c r="BT64" s="7"/>
+      <c r="BU64" s="7"/>
+      <c r="BV64" s="7"/>
+      <c r="BW64" s="7"/>
+      <c r="BX64" s="7"/>
+      <c r="BY64" s="7"/>
+      <c r="BZ64" s="7"/>
+      <c r="CA64" s="7"/>
+      <c r="CB64" s="7"/>
+      <c r="CC64" s="7"/>
+      <c r="CD64" s="7"/>
+      <c r="CE64" s="7"/>
+      <c r="CF64" s="7"/>
+      <c r="CG64" s="7"/>
+      <c r="CH64" s="7"/>
+      <c r="CI64" s="7"/>
+      <c r="CJ64" s="7"/>
+      <c r="CK64" s="7"/>
+      <c r="CL64" s="7"/>
+      <c r="CM64" s="7"/>
+      <c r="CN64" s="7"/>
+      <c r="CO64" s="7"/>
+      <c r="CP64" s="7"/>
+      <c r="CQ64" s="7"/>
+      <c r="CR64" s="7"/>
+      <c r="CS64" s="7"/>
+      <c r="CT64" s="7"/>
+      <c r="CU64" s="7"/>
+      <c r="CV64" s="7"/>
+      <c r="CW64" s="7"/>
+      <c r="CX64" s="7"/>
+      <c r="CY64" s="7"/>
+      <c r="CZ64" s="7"/>
+      <c r="DA64" s="7"/>
     </row>
     <row r="65" spans="1:105" ht="16.5" customHeight="1">
       <c r="A65" s="13" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>137</v>
+        <v>300</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="F65" s="12">
         <v>10</v>
       </c>
       <c r="G65" s="12">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:105" ht="16.5" customHeight="1">
@@ -4176,16 +4287,16 @@
         <v>128</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>138</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E66" s="19" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F66" s="12">
         <v>10</v>
@@ -4198,17 +4309,17 @@
       <c r="A67" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="B67" s="12" t="s">
-        <v>303</v>
+      <c r="B67" s="13" t="s">
+        <v>140</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>304</v>
+        <v>138</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F67" s="12">
         <v>10</v>
@@ -4218,538 +4329,538 @@
       </c>
     </row>
     <row r="68" spans="1:105" ht="16.5" customHeight="1">
-      <c r="A68" s="12" t="s">
+      <c r="A68" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="F68" s="12">
+        <v>10</v>
+      </c>
+      <c r="G68" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:105" ht="16.5" customHeight="1">
+      <c r="A69" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="B69" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="C69" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="D69" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="D68" s="12" t="s">
+      <c r="E69" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="E68" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="F68" s="12">
+      <c r="F69" s="12">
         <v>300</v>
       </c>
-      <c r="G68" s="12" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="69" spans="1:105" s="8" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A69" s="13" t="s">
+      <c r="G69" s="12" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="70" spans="1:105" s="8" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A70" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="B69" s="13" t="s">
+      <c r="B70" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C70" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="D69" s="13" t="s">
+      <c r="D70" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="E69" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="F69" s="12">
-        <v>10</v>
-      </c>
-      <c r="G69" s="12"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
-      <c r="L69" s="7"/>
-      <c r="M69" s="7"/>
-      <c r="N69" s="7"/>
-      <c r="O69" s="7"/>
-      <c r="P69" s="7"/>
-      <c r="Q69" s="7"/>
-      <c r="R69" s="7"/>
-      <c r="S69" s="7"/>
-      <c r="T69" s="7"/>
-      <c r="U69" s="7"/>
-      <c r="V69" s="7"/>
-      <c r="W69" s="7"/>
-      <c r="X69" s="7"/>
-      <c r="Y69" s="7"/>
-      <c r="Z69" s="7"/>
-      <c r="AA69" s="7"/>
-      <c r="AB69" s="7"/>
-      <c r="AC69" s="7"/>
-      <c r="AD69" s="7"/>
-      <c r="AE69" s="7"/>
-      <c r="AF69" s="7"/>
-      <c r="AG69" s="7"/>
-      <c r="AH69" s="7"/>
-      <c r="AI69" s="7"/>
-      <c r="AJ69" s="7"/>
-      <c r="AK69" s="7"/>
-      <c r="AL69" s="7"/>
-      <c r="AM69" s="7"/>
-      <c r="AN69" s="7"/>
-      <c r="AO69" s="7"/>
-      <c r="AP69" s="7"/>
-      <c r="AQ69" s="7"/>
-      <c r="AR69" s="7"/>
-      <c r="AS69" s="7"/>
-      <c r="AT69" s="7"/>
-      <c r="AU69" s="7"/>
-      <c r="AV69" s="7"/>
-      <c r="AW69" s="7"/>
-      <c r="AX69" s="7"/>
-      <c r="AY69" s="7"/>
-      <c r="AZ69" s="7"/>
-      <c r="BA69" s="7"/>
-      <c r="BB69" s="7"/>
-      <c r="BC69" s="7"/>
-      <c r="BD69" s="7"/>
-      <c r="BE69" s="7"/>
-      <c r="BF69" s="7"/>
-      <c r="BG69" s="7"/>
-      <c r="BH69" s="7"/>
-      <c r="BI69" s="7"/>
-      <c r="BJ69" s="7"/>
-      <c r="BK69" s="7"/>
-      <c r="BL69" s="7"/>
-      <c r="BM69" s="7"/>
-      <c r="BN69" s="7"/>
-      <c r="BO69" s="7"/>
-      <c r="BP69" s="7"/>
-      <c r="BQ69" s="7"/>
-      <c r="BR69" s="7"/>
-      <c r="BS69" s="7"/>
-      <c r="BT69" s="7"/>
-      <c r="BU69" s="7"/>
-      <c r="BV69" s="7"/>
-      <c r="BW69" s="7"/>
-      <c r="BX69" s="7"/>
-      <c r="BY69" s="7"/>
-      <c r="BZ69" s="7"/>
-      <c r="CA69" s="7"/>
-      <c r="CB69" s="7"/>
-      <c r="CC69" s="7"/>
-      <c r="CD69" s="7"/>
-      <c r="CE69" s="7"/>
-      <c r="CF69" s="7"/>
-      <c r="CG69" s="7"/>
-      <c r="CH69" s="7"/>
-      <c r="CI69" s="7"/>
-      <c r="CJ69" s="7"/>
-      <c r="CK69" s="7"/>
-      <c r="CL69" s="7"/>
-      <c r="CM69" s="7"/>
-      <c r="CN69" s="7"/>
-      <c r="CO69" s="7"/>
-      <c r="CP69" s="7"/>
-      <c r="CQ69" s="7"/>
-      <c r="CR69" s="7"/>
-      <c r="CS69" s="7"/>
-      <c r="CT69" s="7"/>
-      <c r="CU69" s="7"/>
-      <c r="CV69" s="7"/>
-      <c r="CW69" s="7"/>
-      <c r="CX69" s="7"/>
-      <c r="CY69" s="7"/>
-      <c r="CZ69" s="7"/>
-      <c r="DA69" s="7"/>
-    </row>
-    <row r="70" spans="1:105" ht="16.5" customHeight="1">
-      <c r="A70" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>152</v>
-      </c>
       <c r="E70" s="19" t="s">
-        <v>334</v>
+        <v>367</v>
       </c>
       <c r="F70" s="12">
         <v>10</v>
       </c>
-      <c r="G70" s="12">
+      <c r="G70" s="12"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="7"/>
+      <c r="P70" s="7"/>
+      <c r="Q70" s="7"/>
+      <c r="R70" s="7"/>
+      <c r="S70" s="7"/>
+      <c r="T70" s="7"/>
+      <c r="U70" s="7"/>
+      <c r="V70" s="7"/>
+      <c r="W70" s="7"/>
+      <c r="X70" s="7"/>
+      <c r="Y70" s="7"/>
+      <c r="Z70" s="7"/>
+      <c r="AA70" s="7"/>
+      <c r="AB70" s="7"/>
+      <c r="AC70" s="7"/>
+      <c r="AD70" s="7"/>
+      <c r="AE70" s="7"/>
+      <c r="AF70" s="7"/>
+      <c r="AG70" s="7"/>
+      <c r="AH70" s="7"/>
+      <c r="AI70" s="7"/>
+      <c r="AJ70" s="7"/>
+      <c r="AK70" s="7"/>
+      <c r="AL70" s="7"/>
+      <c r="AM70" s="7"/>
+      <c r="AN70" s="7"/>
+      <c r="AO70" s="7"/>
+      <c r="AP70" s="7"/>
+      <c r="AQ70" s="7"/>
+      <c r="AR70" s="7"/>
+      <c r="AS70" s="7"/>
+      <c r="AT70" s="7"/>
+      <c r="AU70" s="7"/>
+      <c r="AV70" s="7"/>
+      <c r="AW70" s="7"/>
+      <c r="AX70" s="7"/>
+      <c r="AY70" s="7"/>
+      <c r="AZ70" s="7"/>
+      <c r="BA70" s="7"/>
+      <c r="BB70" s="7"/>
+      <c r="BC70" s="7"/>
+      <c r="BD70" s="7"/>
+      <c r="BE70" s="7"/>
+      <c r="BF70" s="7"/>
+      <c r="BG70" s="7"/>
+      <c r="BH70" s="7"/>
+      <c r="BI70" s="7"/>
+      <c r="BJ70" s="7"/>
+      <c r="BK70" s="7"/>
+      <c r="BL70" s="7"/>
+      <c r="BM70" s="7"/>
+      <c r="BN70" s="7"/>
+      <c r="BO70" s="7"/>
+      <c r="BP70" s="7"/>
+      <c r="BQ70" s="7"/>
+      <c r="BR70" s="7"/>
+      <c r="BS70" s="7"/>
+      <c r="BT70" s="7"/>
+      <c r="BU70" s="7"/>
+      <c r="BV70" s="7"/>
+      <c r="BW70" s="7"/>
+      <c r="BX70" s="7"/>
+      <c r="BY70" s="7"/>
+      <c r="BZ70" s="7"/>
+      <c r="CA70" s="7"/>
+      <c r="CB70" s="7"/>
+      <c r="CC70" s="7"/>
+      <c r="CD70" s="7"/>
+      <c r="CE70" s="7"/>
+      <c r="CF70" s="7"/>
+      <c r="CG70" s="7"/>
+      <c r="CH70" s="7"/>
+      <c r="CI70" s="7"/>
+      <c r="CJ70" s="7"/>
+      <c r="CK70" s="7"/>
+      <c r="CL70" s="7"/>
+      <c r="CM70" s="7"/>
+      <c r="CN70" s="7"/>
+      <c r="CO70" s="7"/>
+      <c r="CP70" s="7"/>
+      <c r="CQ70" s="7"/>
+      <c r="CR70" s="7"/>
+      <c r="CS70" s="7"/>
+      <c r="CT70" s="7"/>
+      <c r="CU70" s="7"/>
+      <c r="CV70" s="7"/>
+      <c r="CW70" s="7"/>
+      <c r="CX70" s="7"/>
+      <c r="CY70" s="7"/>
+      <c r="CZ70" s="7"/>
+      <c r="DA70" s="7"/>
+    </row>
+    <row r="71" spans="1:105" ht="16.5" customHeight="1">
+      <c r="A71" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="F71" s="12">
+        <v>10</v>
+      </c>
+      <c r="G71" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:105" ht="33.75">
-      <c r="A71" s="13" t="s">
+    <row r="72" spans="1:105" ht="33.75">
+      <c r="A72" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D72" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="E72" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="F72" s="12">
+        <v>80</v>
+      </c>
+      <c r="G72" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:105" s="8" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A73" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="B71" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D71" s="22" t="s">
-        <v>382</v>
-      </c>
-      <c r="E71" s="19" t="s">
+      <c r="B73" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E73" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="F73" s="12">
+        <v>10</v>
+      </c>
+      <c r="G73" s="12"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7"/>
+      <c r="P73" s="7"/>
+      <c r="Q73" s="7"/>
+      <c r="R73" s="7"/>
+      <c r="S73" s="7"/>
+      <c r="T73" s="7"/>
+      <c r="U73" s="7"/>
+      <c r="V73" s="7"/>
+      <c r="W73" s="7"/>
+      <c r="X73" s="7"/>
+      <c r="Y73" s="7"/>
+      <c r="Z73" s="7"/>
+      <c r="AA73" s="7"/>
+      <c r="AB73" s="7"/>
+      <c r="AC73" s="7"/>
+      <c r="AD73" s="7"/>
+      <c r="AE73" s="7"/>
+      <c r="AF73" s="7"/>
+      <c r="AG73" s="7"/>
+      <c r="AH73" s="7"/>
+      <c r="AI73" s="7"/>
+      <c r="AJ73" s="7"/>
+      <c r="AK73" s="7"/>
+      <c r="AL73" s="7"/>
+      <c r="AM73" s="7"/>
+      <c r="AN73" s="7"/>
+      <c r="AO73" s="7"/>
+      <c r="AP73" s="7"/>
+      <c r="AQ73" s="7"/>
+      <c r="AR73" s="7"/>
+      <c r="AS73" s="7"/>
+      <c r="AT73" s="7"/>
+      <c r="AU73" s="7"/>
+      <c r="AV73" s="7"/>
+      <c r="AW73" s="7"/>
+      <c r="AX73" s="7"/>
+      <c r="AY73" s="7"/>
+      <c r="AZ73" s="7"/>
+      <c r="BA73" s="7"/>
+      <c r="BB73" s="7"/>
+      <c r="BC73" s="7"/>
+      <c r="BD73" s="7"/>
+      <c r="BE73" s="7"/>
+      <c r="BF73" s="7"/>
+      <c r="BG73" s="7"/>
+      <c r="BH73" s="7"/>
+      <c r="BI73" s="7"/>
+      <c r="BJ73" s="7"/>
+      <c r="BK73" s="7"/>
+      <c r="BL73" s="7"/>
+      <c r="BM73" s="7"/>
+      <c r="BN73" s="7"/>
+      <c r="BO73" s="7"/>
+      <c r="BP73" s="7"/>
+      <c r="BQ73" s="7"/>
+      <c r="BR73" s="7"/>
+      <c r="BS73" s="7"/>
+      <c r="BT73" s="7"/>
+      <c r="BU73" s="7"/>
+      <c r="BV73" s="7"/>
+      <c r="BW73" s="7"/>
+      <c r="BX73" s="7"/>
+      <c r="BY73" s="7"/>
+      <c r="BZ73" s="7"/>
+      <c r="CA73" s="7"/>
+      <c r="CB73" s="7"/>
+      <c r="CC73" s="7"/>
+      <c r="CD73" s="7"/>
+      <c r="CE73" s="7"/>
+      <c r="CF73" s="7"/>
+      <c r="CG73" s="7"/>
+      <c r="CH73" s="7"/>
+      <c r="CI73" s="7"/>
+      <c r="CJ73" s="7"/>
+      <c r="CK73" s="7"/>
+      <c r="CL73" s="7"/>
+      <c r="CM73" s="7"/>
+      <c r="CN73" s="7"/>
+      <c r="CO73" s="7"/>
+      <c r="CP73" s="7"/>
+      <c r="CQ73" s="7"/>
+      <c r="CR73" s="7"/>
+      <c r="CS73" s="7"/>
+      <c r="CT73" s="7"/>
+      <c r="CU73" s="7"/>
+      <c r="CV73" s="7"/>
+      <c r="CW73" s="7"/>
+      <c r="CX73" s="7"/>
+      <c r="CY73" s="7"/>
+      <c r="CZ73" s="7"/>
+      <c r="DA73" s="7"/>
+    </row>
+    <row r="74" spans="1:105" ht="16.5" customHeight="1">
+      <c r="A74" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="E74" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="F74" s="12">
+        <v>100</v>
+      </c>
+      <c r="G74" s="12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:105" s="8" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A75" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="E75" s="19" t="s">
         <v>335</v>
-      </c>
-      <c r="F71" s="12">
-        <v>80</v>
-      </c>
-      <c r="G71" s="12">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="72" spans="1:105" s="8" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A72" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D72" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="E72" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="F72" s="12">
-        <v>10</v>
-      </c>
-      <c r="G72" s="12"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
-      <c r="K72" s="7"/>
-      <c r="L72" s="7"/>
-      <c r="M72" s="7"/>
-      <c r="N72" s="7"/>
-      <c r="O72" s="7"/>
-      <c r="P72" s="7"/>
-      <c r="Q72" s="7"/>
-      <c r="R72" s="7"/>
-      <c r="S72" s="7"/>
-      <c r="T72" s="7"/>
-      <c r="U72" s="7"/>
-      <c r="V72" s="7"/>
-      <c r="W72" s="7"/>
-      <c r="X72" s="7"/>
-      <c r="Y72" s="7"/>
-      <c r="Z72" s="7"/>
-      <c r="AA72" s="7"/>
-      <c r="AB72" s="7"/>
-      <c r="AC72" s="7"/>
-      <c r="AD72" s="7"/>
-      <c r="AE72" s="7"/>
-      <c r="AF72" s="7"/>
-      <c r="AG72" s="7"/>
-      <c r="AH72" s="7"/>
-      <c r="AI72" s="7"/>
-      <c r="AJ72" s="7"/>
-      <c r="AK72" s="7"/>
-      <c r="AL72" s="7"/>
-      <c r="AM72" s="7"/>
-      <c r="AN72" s="7"/>
-      <c r="AO72" s="7"/>
-      <c r="AP72" s="7"/>
-      <c r="AQ72" s="7"/>
-      <c r="AR72" s="7"/>
-      <c r="AS72" s="7"/>
-      <c r="AT72" s="7"/>
-      <c r="AU72" s="7"/>
-      <c r="AV72" s="7"/>
-      <c r="AW72" s="7"/>
-      <c r="AX72" s="7"/>
-      <c r="AY72" s="7"/>
-      <c r="AZ72" s="7"/>
-      <c r="BA72" s="7"/>
-      <c r="BB72" s="7"/>
-      <c r="BC72" s="7"/>
-      <c r="BD72" s="7"/>
-      <c r="BE72" s="7"/>
-      <c r="BF72" s="7"/>
-      <c r="BG72" s="7"/>
-      <c r="BH72" s="7"/>
-      <c r="BI72" s="7"/>
-      <c r="BJ72" s="7"/>
-      <c r="BK72" s="7"/>
-      <c r="BL72" s="7"/>
-      <c r="BM72" s="7"/>
-      <c r="BN72" s="7"/>
-      <c r="BO72" s="7"/>
-      <c r="BP72" s="7"/>
-      <c r="BQ72" s="7"/>
-      <c r="BR72" s="7"/>
-      <c r="BS72" s="7"/>
-      <c r="BT72" s="7"/>
-      <c r="BU72" s="7"/>
-      <c r="BV72" s="7"/>
-      <c r="BW72" s="7"/>
-      <c r="BX72" s="7"/>
-      <c r="BY72" s="7"/>
-      <c r="BZ72" s="7"/>
-      <c r="CA72" s="7"/>
-      <c r="CB72" s="7"/>
-      <c r="CC72" s="7"/>
-      <c r="CD72" s="7"/>
-      <c r="CE72" s="7"/>
-      <c r="CF72" s="7"/>
-      <c r="CG72" s="7"/>
-      <c r="CH72" s="7"/>
-      <c r="CI72" s="7"/>
-      <c r="CJ72" s="7"/>
-      <c r="CK72" s="7"/>
-      <c r="CL72" s="7"/>
-      <c r="CM72" s="7"/>
-      <c r="CN72" s="7"/>
-      <c r="CO72" s="7"/>
-      <c r="CP72" s="7"/>
-      <c r="CQ72" s="7"/>
-      <c r="CR72" s="7"/>
-      <c r="CS72" s="7"/>
-      <c r="CT72" s="7"/>
-      <c r="CU72" s="7"/>
-      <c r="CV72" s="7"/>
-      <c r="CW72" s="7"/>
-      <c r="CX72" s="7"/>
-      <c r="CY72" s="7"/>
-      <c r="CZ72" s="7"/>
-      <c r="DA72" s="7"/>
-    </row>
-    <row r="73" spans="1:105" ht="16.5" customHeight="1">
-      <c r="A73" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="B73" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="E73" s="19" t="s">
-        <v>346</v>
-      </c>
-      <c r="F73" s="12">
-        <v>100</v>
-      </c>
-      <c r="G73" s="12">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="1:105" s="8" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A74" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B74" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C74" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D74" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="E74" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="F74" s="12">
-        <v>10</v>
-      </c>
-      <c r="G74" s="12"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
-      <c r="K74" s="7"/>
-      <c r="L74" s="7"/>
-      <c r="M74" s="7"/>
-      <c r="N74" s="7"/>
-      <c r="O74" s="7"/>
-      <c r="P74" s="7"/>
-      <c r="Q74" s="7"/>
-      <c r="R74" s="7"/>
-      <c r="S74" s="7"/>
-      <c r="T74" s="7"/>
-      <c r="U74" s="7"/>
-      <c r="V74" s="7"/>
-      <c r="W74" s="7"/>
-      <c r="X74" s="7"/>
-      <c r="Y74" s="7"/>
-      <c r="Z74" s="7"/>
-      <c r="AA74" s="7"/>
-      <c r="AB74" s="7"/>
-      <c r="AC74" s="7"/>
-      <c r="AD74" s="7"/>
-      <c r="AE74" s="7"/>
-      <c r="AF74" s="7"/>
-      <c r="AG74" s="7"/>
-      <c r="AH74" s="7"/>
-      <c r="AI74" s="7"/>
-      <c r="AJ74" s="7"/>
-      <c r="AK74" s="7"/>
-      <c r="AL74" s="7"/>
-      <c r="AM74" s="7"/>
-      <c r="AN74" s="7"/>
-      <c r="AO74" s="7"/>
-      <c r="AP74" s="7"/>
-      <c r="AQ74" s="7"/>
-      <c r="AR74" s="7"/>
-      <c r="AS74" s="7"/>
-      <c r="AT74" s="7"/>
-      <c r="AU74" s="7"/>
-      <c r="AV74" s="7"/>
-      <c r="AW74" s="7"/>
-      <c r="AX74" s="7"/>
-      <c r="AY74" s="7"/>
-      <c r="AZ74" s="7"/>
-      <c r="BA74" s="7"/>
-      <c r="BB74" s="7"/>
-      <c r="BC74" s="7"/>
-      <c r="BD74" s="7"/>
-      <c r="BE74" s="7"/>
-      <c r="BF74" s="7"/>
-      <c r="BG74" s="7"/>
-      <c r="BH74" s="7"/>
-      <c r="BI74" s="7"/>
-      <c r="BJ74" s="7"/>
-      <c r="BK74" s="7"/>
-      <c r="BL74" s="7"/>
-      <c r="BM74" s="7"/>
-      <c r="BN74" s="7"/>
-      <c r="BO74" s="7"/>
-      <c r="BP74" s="7"/>
-      <c r="BQ74" s="7"/>
-      <c r="BR74" s="7"/>
-      <c r="BS74" s="7"/>
-      <c r="BT74" s="7"/>
-      <c r="BU74" s="7"/>
-      <c r="BV74" s="7"/>
-      <c r="BW74" s="7"/>
-      <c r="BX74" s="7"/>
-      <c r="BY74" s="7"/>
-      <c r="BZ74" s="7"/>
-      <c r="CA74" s="7"/>
-      <c r="CB74" s="7"/>
-      <c r="CC74" s="7"/>
-      <c r="CD74" s="7"/>
-      <c r="CE74" s="7"/>
-      <c r="CF74" s="7"/>
-      <c r="CG74" s="7"/>
-      <c r="CH74" s="7"/>
-      <c r="CI74" s="7"/>
-      <c r="CJ74" s="7"/>
-      <c r="CK74" s="7"/>
-      <c r="CL74" s="7"/>
-      <c r="CM74" s="7"/>
-      <c r="CN74" s="7"/>
-      <c r="CO74" s="7"/>
-      <c r="CP74" s="7"/>
-      <c r="CQ74" s="7"/>
-      <c r="CR74" s="7"/>
-      <c r="CS74" s="7"/>
-      <c r="CT74" s="7"/>
-      <c r="CU74" s="7"/>
-      <c r="CV74" s="7"/>
-      <c r="CW74" s="7"/>
-      <c r="CX74" s="7"/>
-      <c r="CY74" s="7"/>
-      <c r="CZ74" s="7"/>
-      <c r="DA74" s="7"/>
-    </row>
-    <row r="75" spans="1:105" ht="16.5" customHeight="1">
-      <c r="A75" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="B75" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="C75" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="D75" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E75" s="19" t="s">
-        <v>338</v>
       </c>
       <c r="F75" s="12">
         <v>10</v>
       </c>
-      <c r="G75" s="12">
-        <v>9</v>
-      </c>
+      <c r="G75" s="12"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="7"/>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="7"/>
+      <c r="R75" s="7"/>
+      <c r="S75" s="7"/>
+      <c r="T75" s="7"/>
+      <c r="U75" s="7"/>
+      <c r="V75" s="7"/>
+      <c r="W75" s="7"/>
+      <c r="X75" s="7"/>
+      <c r="Y75" s="7"/>
+      <c r="Z75" s="7"/>
+      <c r="AA75" s="7"/>
+      <c r="AB75" s="7"/>
+      <c r="AC75" s="7"/>
+      <c r="AD75" s="7"/>
+      <c r="AE75" s="7"/>
+      <c r="AF75" s="7"/>
+      <c r="AG75" s="7"/>
+      <c r="AH75" s="7"/>
+      <c r="AI75" s="7"/>
+      <c r="AJ75" s="7"/>
+      <c r="AK75" s="7"/>
+      <c r="AL75" s="7"/>
+      <c r="AM75" s="7"/>
+      <c r="AN75" s="7"/>
+      <c r="AO75" s="7"/>
+      <c r="AP75" s="7"/>
+      <c r="AQ75" s="7"/>
+      <c r="AR75" s="7"/>
+      <c r="AS75" s="7"/>
+      <c r="AT75" s="7"/>
+      <c r="AU75" s="7"/>
+      <c r="AV75" s="7"/>
+      <c r="AW75" s="7"/>
+      <c r="AX75" s="7"/>
+      <c r="AY75" s="7"/>
+      <c r="AZ75" s="7"/>
+      <c r="BA75" s="7"/>
+      <c r="BB75" s="7"/>
+      <c r="BC75" s="7"/>
+      <c r="BD75" s="7"/>
+      <c r="BE75" s="7"/>
+      <c r="BF75" s="7"/>
+      <c r="BG75" s="7"/>
+      <c r="BH75" s="7"/>
+      <c r="BI75" s="7"/>
+      <c r="BJ75" s="7"/>
+      <c r="BK75" s="7"/>
+      <c r="BL75" s="7"/>
+      <c r="BM75" s="7"/>
+      <c r="BN75" s="7"/>
+      <c r="BO75" s="7"/>
+      <c r="BP75" s="7"/>
+      <c r="BQ75" s="7"/>
+      <c r="BR75" s="7"/>
+      <c r="BS75" s="7"/>
+      <c r="BT75" s="7"/>
+      <c r="BU75" s="7"/>
+      <c r="BV75" s="7"/>
+      <c r="BW75" s="7"/>
+      <c r="BX75" s="7"/>
+      <c r="BY75" s="7"/>
+      <c r="BZ75" s="7"/>
+      <c r="CA75" s="7"/>
+      <c r="CB75" s="7"/>
+      <c r="CC75" s="7"/>
+      <c r="CD75" s="7"/>
+      <c r="CE75" s="7"/>
+      <c r="CF75" s="7"/>
+      <c r="CG75" s="7"/>
+      <c r="CH75" s="7"/>
+      <c r="CI75" s="7"/>
+      <c r="CJ75" s="7"/>
+      <c r="CK75" s="7"/>
+      <c r="CL75" s="7"/>
+      <c r="CM75" s="7"/>
+      <c r="CN75" s="7"/>
+      <c r="CO75" s="7"/>
+      <c r="CP75" s="7"/>
+      <c r="CQ75" s="7"/>
+      <c r="CR75" s="7"/>
+      <c r="CS75" s="7"/>
+      <c r="CT75" s="7"/>
+      <c r="CU75" s="7"/>
+      <c r="CV75" s="7"/>
+      <c r="CW75" s="7"/>
+      <c r="CX75" s="7"/>
+      <c r="CY75" s="7"/>
+      <c r="CZ75" s="7"/>
+      <c r="DA75" s="7"/>
     </row>
     <row r="76" spans="1:105" ht="16.5" customHeight="1">
-      <c r="A76" s="14" t="s">
-        <v>385</v>
-      </c>
-      <c r="B76" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C76" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>24</v>
+      <c r="A76" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="E76" s="19" t="s">
-        <v>25</v>
+        <v>336</v>
       </c>
       <c r="F76" s="12">
         <v>10</v>
       </c>
       <c r="G76" s="12">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:105" ht="16.5" customHeight="1">
-      <c r="A77" s="12" t="s">
-        <v>48</v>
+      <c r="A77" s="14" t="s">
+        <v>383</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="F77" s="12">
         <v>10</v>
       </c>
       <c r="G77" s="12">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:105" ht="16.5" customHeight="1">
       <c r="A78" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E78" s="19" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F78" s="12">
         <v>10</v>
@@ -4758,490 +4869,394 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:105" s="8" customFormat="1" ht="16.5" customHeight="1">
+    <row r="79" spans="1:105" ht="16.5" customHeight="1">
       <c r="A79" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E79" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F79" s="12">
         <v>10</v>
       </c>
-      <c r="G79" s="12"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
-      <c r="K79" s="7"/>
-      <c r="L79" s="7"/>
-      <c r="M79" s="7"/>
-      <c r="N79" s="7"/>
-      <c r="O79" s="7"/>
-      <c r="P79" s="7"/>
-      <c r="Q79" s="7"/>
-      <c r="R79" s="7"/>
-      <c r="S79" s="7"/>
-      <c r="T79" s="7"/>
-      <c r="U79" s="7"/>
-      <c r="V79" s="7"/>
-      <c r="W79" s="7"/>
-      <c r="X79" s="7"/>
-      <c r="Y79" s="7"/>
-      <c r="Z79" s="7"/>
-      <c r="AA79" s="7"/>
-      <c r="AB79" s="7"/>
-      <c r="AC79" s="7"/>
-      <c r="AD79" s="7"/>
-      <c r="AE79" s="7"/>
-      <c r="AF79" s="7"/>
-      <c r="AG79" s="7"/>
-      <c r="AH79" s="7"/>
-      <c r="AI79" s="7"/>
-      <c r="AJ79" s="7"/>
-      <c r="AK79" s="7"/>
-      <c r="AL79" s="7"/>
-      <c r="AM79" s="7"/>
-      <c r="AN79" s="7"/>
-      <c r="AO79" s="7"/>
-      <c r="AP79" s="7"/>
-      <c r="AQ79" s="7"/>
-      <c r="AR79" s="7"/>
-      <c r="AS79" s="7"/>
-      <c r="AT79" s="7"/>
-      <c r="AU79" s="7"/>
-      <c r="AV79" s="7"/>
-      <c r="AW79" s="7"/>
-      <c r="AX79" s="7"/>
-      <c r="AY79" s="7"/>
-      <c r="AZ79" s="7"/>
-      <c r="BA79" s="7"/>
-      <c r="BB79" s="7"/>
-      <c r="BC79" s="7"/>
-      <c r="BD79" s="7"/>
-      <c r="BE79" s="7"/>
-      <c r="BF79" s="7"/>
-      <c r="BG79" s="7"/>
-      <c r="BH79" s="7"/>
-      <c r="BI79" s="7"/>
-      <c r="BJ79" s="7"/>
-      <c r="BK79" s="7"/>
-      <c r="BL79" s="7"/>
-      <c r="BM79" s="7"/>
-      <c r="BN79" s="7"/>
-      <c r="BO79" s="7"/>
-      <c r="BP79" s="7"/>
-      <c r="BQ79" s="7"/>
-      <c r="BR79" s="7"/>
-      <c r="BS79" s="7"/>
-      <c r="BT79" s="7"/>
-      <c r="BU79" s="7"/>
-      <c r="BV79" s="7"/>
-      <c r="BW79" s="7"/>
-      <c r="BX79" s="7"/>
-      <c r="BY79" s="7"/>
-      <c r="BZ79" s="7"/>
-      <c r="CA79" s="7"/>
-      <c r="CB79" s="7"/>
-      <c r="CC79" s="7"/>
-      <c r="CD79" s="7"/>
-      <c r="CE79" s="7"/>
-      <c r="CF79" s="7"/>
-      <c r="CG79" s="7"/>
-      <c r="CH79" s="7"/>
-      <c r="CI79" s="7"/>
-      <c r="CJ79" s="7"/>
-      <c r="CK79" s="7"/>
-      <c r="CL79" s="7"/>
-      <c r="CM79" s="7"/>
-      <c r="CN79" s="7"/>
-      <c r="CO79" s="7"/>
-      <c r="CP79" s="7"/>
-      <c r="CQ79" s="7"/>
-      <c r="CR79" s="7"/>
-      <c r="CS79" s="7"/>
-      <c r="CT79" s="7"/>
-      <c r="CU79" s="7"/>
-      <c r="CV79" s="7"/>
-      <c r="CW79" s="7"/>
-      <c r="CX79" s="7"/>
-      <c r="CY79" s="7"/>
-      <c r="CZ79" s="7"/>
-      <c r="DA79" s="7"/>
-    </row>
-    <row r="80" spans="1:105" ht="16.5" customHeight="1">
-      <c r="A80" s="14" t="s">
-        <v>384</v>
-      </c>
-      <c r="B80" s="14" t="s">
-        <v>393</v>
+      <c r="G79" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:105" s="8" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A80" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>227</v>
+        <v>57</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>228</v>
+        <v>58</v>
       </c>
       <c r="E80" s="19" t="s">
-        <v>344</v>
+        <v>59</v>
       </c>
       <c r="F80" s="12">
         <v>10</v>
       </c>
-      <c r="G80" s="12">
-        <v>12</v>
-      </c>
+      <c r="G80" s="12"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="7"/>
+      <c r="O80" s="7"/>
+      <c r="P80" s="7"/>
+      <c r="Q80" s="7"/>
+      <c r="R80" s="7"/>
+      <c r="S80" s="7"/>
+      <c r="T80" s="7"/>
+      <c r="U80" s="7"/>
+      <c r="V80" s="7"/>
+      <c r="W80" s="7"/>
+      <c r="X80" s="7"/>
+      <c r="Y80" s="7"/>
+      <c r="Z80" s="7"/>
+      <c r="AA80" s="7"/>
+      <c r="AB80" s="7"/>
+      <c r="AC80" s="7"/>
+      <c r="AD80" s="7"/>
+      <c r="AE80" s="7"/>
+      <c r="AF80" s="7"/>
+      <c r="AG80" s="7"/>
+      <c r="AH80" s="7"/>
+      <c r="AI80" s="7"/>
+      <c r="AJ80" s="7"/>
+      <c r="AK80" s="7"/>
+      <c r="AL80" s="7"/>
+      <c r="AM80" s="7"/>
+      <c r="AN80" s="7"/>
+      <c r="AO80" s="7"/>
+      <c r="AP80" s="7"/>
+      <c r="AQ80" s="7"/>
+      <c r="AR80" s="7"/>
+      <c r="AS80" s="7"/>
+      <c r="AT80" s="7"/>
+      <c r="AU80" s="7"/>
+      <c r="AV80" s="7"/>
+      <c r="AW80" s="7"/>
+      <c r="AX80" s="7"/>
+      <c r="AY80" s="7"/>
+      <c r="AZ80" s="7"/>
+      <c r="BA80" s="7"/>
+      <c r="BB80" s="7"/>
+      <c r="BC80" s="7"/>
+      <c r="BD80" s="7"/>
+      <c r="BE80" s="7"/>
+      <c r="BF80" s="7"/>
+      <c r="BG80" s="7"/>
+      <c r="BH80" s="7"/>
+      <c r="BI80" s="7"/>
+      <c r="BJ80" s="7"/>
+      <c r="BK80" s="7"/>
+      <c r="BL80" s="7"/>
+      <c r="BM80" s="7"/>
+      <c r="BN80" s="7"/>
+      <c r="BO80" s="7"/>
+      <c r="BP80" s="7"/>
+      <c r="BQ80" s="7"/>
+      <c r="BR80" s="7"/>
+      <c r="BS80" s="7"/>
+      <c r="BT80" s="7"/>
+      <c r="BU80" s="7"/>
+      <c r="BV80" s="7"/>
+      <c r="BW80" s="7"/>
+      <c r="BX80" s="7"/>
+      <c r="BY80" s="7"/>
+      <c r="BZ80" s="7"/>
+      <c r="CA80" s="7"/>
+      <c r="CB80" s="7"/>
+      <c r="CC80" s="7"/>
+      <c r="CD80" s="7"/>
+      <c r="CE80" s="7"/>
+      <c r="CF80" s="7"/>
+      <c r="CG80" s="7"/>
+      <c r="CH80" s="7"/>
+      <c r="CI80" s="7"/>
+      <c r="CJ80" s="7"/>
+      <c r="CK80" s="7"/>
+      <c r="CL80" s="7"/>
+      <c r="CM80" s="7"/>
+      <c r="CN80" s="7"/>
+      <c r="CO80" s="7"/>
+      <c r="CP80" s="7"/>
+      <c r="CQ80" s="7"/>
+      <c r="CR80" s="7"/>
+      <c r="CS80" s="7"/>
+      <c r="CT80" s="7"/>
+      <c r="CU80" s="7"/>
+      <c r="CV80" s="7"/>
+      <c r="CW80" s="7"/>
+      <c r="CX80" s="7"/>
+      <c r="CY80" s="7"/>
+      <c r="CZ80" s="7"/>
+      <c r="DA80" s="7"/>
     </row>
     <row r="81" spans="1:105" ht="16.5" customHeight="1">
-      <c r="A81" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="B81" s="12" t="s">
-        <v>230</v>
+      <c r="A81" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>391</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>164</v>
+        <v>227</v>
       </c>
       <c r="E81" s="19" t="s">
-        <v>232</v>
+        <v>342</v>
       </c>
       <c r="F81" s="12">
         <v>10</v>
       </c>
       <c r="G81" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:105" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A82" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="B82" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C82" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="D82" s="13" t="s">
-        <v>167</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:105" ht="16.5" customHeight="1">
+      <c r="A82" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>164</v>
       </c>
       <c r="E82" s="19" t="s">
-        <v>370</v>
+        <v>231</v>
       </c>
       <c r="F82" s="12">
         <v>10</v>
       </c>
-      <c r="G82" s="12"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="7"/>
-      <c r="L82" s="7"/>
-      <c r="M82" s="7"/>
-      <c r="N82" s="7"/>
-      <c r="O82" s="7"/>
-      <c r="P82" s="7"/>
-      <c r="Q82" s="7"/>
-      <c r="R82" s="7"/>
-      <c r="S82" s="7"/>
-      <c r="T82" s="7"/>
-      <c r="U82" s="7"/>
-      <c r="V82" s="7"/>
-      <c r="W82" s="7"/>
-      <c r="X82" s="7"/>
-      <c r="Y82" s="7"/>
-      <c r="Z82" s="7"/>
-      <c r="AA82" s="7"/>
-      <c r="AB82" s="7"/>
-      <c r="AC82" s="7"/>
-      <c r="AD82" s="7"/>
-      <c r="AE82" s="7"/>
-      <c r="AF82" s="7"/>
-      <c r="AG82" s="7"/>
-      <c r="AH82" s="7"/>
-      <c r="AI82" s="7"/>
-      <c r="AJ82" s="7"/>
-      <c r="AK82" s="7"/>
-      <c r="AL82" s="7"/>
-      <c r="AM82" s="7"/>
-      <c r="AN82" s="7"/>
-      <c r="AO82" s="7"/>
-      <c r="AP82" s="7"/>
-      <c r="AQ82" s="7"/>
-      <c r="AR82" s="7"/>
-      <c r="AS82" s="7"/>
-      <c r="AT82" s="7"/>
-      <c r="AU82" s="7"/>
-      <c r="AV82" s="7"/>
-      <c r="AW82" s="7"/>
-      <c r="AX82" s="7"/>
-      <c r="AY82" s="7"/>
-      <c r="AZ82" s="7"/>
-      <c r="BA82" s="7"/>
-      <c r="BB82" s="7"/>
-      <c r="BC82" s="7"/>
-      <c r="BD82" s="7"/>
-      <c r="BE82" s="7"/>
-      <c r="BF82" s="7"/>
-      <c r="BG82" s="7"/>
-      <c r="BH82" s="7"/>
-      <c r="BI82" s="7"/>
-      <c r="BJ82" s="7"/>
-      <c r="BK82" s="7"/>
-      <c r="BL82" s="7"/>
-      <c r="BM82" s="7"/>
-      <c r="BN82" s="7"/>
-      <c r="BO82" s="7"/>
-      <c r="BP82" s="7"/>
-      <c r="BQ82" s="7"/>
-      <c r="BR82" s="7"/>
-      <c r="BS82" s="7"/>
-      <c r="BT82" s="7"/>
-      <c r="BU82" s="7"/>
-      <c r="BV82" s="7"/>
-      <c r="BW82" s="7"/>
-      <c r="BX82" s="7"/>
-      <c r="BY82" s="7"/>
-      <c r="BZ82" s="7"/>
-      <c r="CA82" s="7"/>
-      <c r="CB82" s="7"/>
-      <c r="CC82" s="7"/>
-      <c r="CD82" s="7"/>
-      <c r="CE82" s="7"/>
-      <c r="CF82" s="7"/>
-      <c r="CG82" s="7"/>
-      <c r="CH82" s="7"/>
-      <c r="CI82" s="7"/>
-      <c r="CJ82" s="7"/>
-      <c r="CK82" s="7"/>
-      <c r="CL82" s="7"/>
-      <c r="CM82" s="7"/>
-      <c r="CN82" s="7"/>
-      <c r="CO82" s="7"/>
-      <c r="CP82" s="7"/>
-      <c r="CQ82" s="7"/>
-      <c r="CR82" s="7"/>
-      <c r="CS82" s="7"/>
-      <c r="CT82" s="7"/>
-      <c r="CU82" s="7"/>
-      <c r="CV82" s="7"/>
-      <c r="CW82" s="7"/>
-      <c r="CX82" s="7"/>
-      <c r="CY82" s="7"/>
-      <c r="CZ82" s="7"/>
-      <c r="DA82" s="7"/>
-    </row>
-    <row r="83" spans="1:105" ht="16.5" customHeight="1">
-      <c r="A83" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="B83" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="C83" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="D83" s="12" t="s">
-        <v>235</v>
+      <c r="G82" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:105" s="8" customFormat="1" ht="18" customHeight="1">
+      <c r="A83" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>167</v>
       </c>
       <c r="E83" s="19" t="s">
-        <v>345</v>
+        <v>368</v>
       </c>
       <c r="F83" s="12">
         <v>10</v>
       </c>
-      <c r="G83" s="12">
-        <v>6</v>
-      </c>
+      <c r="G83" s="12"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="7"/>
+      <c r="O83" s="7"/>
+      <c r="P83" s="7"/>
+      <c r="Q83" s="7"/>
+      <c r="R83" s="7"/>
+      <c r="S83" s="7"/>
+      <c r="T83" s="7"/>
+      <c r="U83" s="7"/>
+      <c r="V83" s="7"/>
+      <c r="W83" s="7"/>
+      <c r="X83" s="7"/>
+      <c r="Y83" s="7"/>
+      <c r="Z83" s="7"/>
+      <c r="AA83" s="7"/>
+      <c r="AB83" s="7"/>
+      <c r="AC83" s="7"/>
+      <c r="AD83" s="7"/>
+      <c r="AE83" s="7"/>
+      <c r="AF83" s="7"/>
+      <c r="AG83" s="7"/>
+      <c r="AH83" s="7"/>
+      <c r="AI83" s="7"/>
+      <c r="AJ83" s="7"/>
+      <c r="AK83" s="7"/>
+      <c r="AL83" s="7"/>
+      <c r="AM83" s="7"/>
+      <c r="AN83" s="7"/>
+      <c r="AO83" s="7"/>
+      <c r="AP83" s="7"/>
+      <c r="AQ83" s="7"/>
+      <c r="AR83" s="7"/>
+      <c r="AS83" s="7"/>
+      <c r="AT83" s="7"/>
+      <c r="AU83" s="7"/>
+      <c r="AV83" s="7"/>
+      <c r="AW83" s="7"/>
+      <c r="AX83" s="7"/>
+      <c r="AY83" s="7"/>
+      <c r="AZ83" s="7"/>
+      <c r="BA83" s="7"/>
+      <c r="BB83" s="7"/>
+      <c r="BC83" s="7"/>
+      <c r="BD83" s="7"/>
+      <c r="BE83" s="7"/>
+      <c r="BF83" s="7"/>
+      <c r="BG83" s="7"/>
+      <c r="BH83" s="7"/>
+      <c r="BI83" s="7"/>
+      <c r="BJ83" s="7"/>
+      <c r="BK83" s="7"/>
+      <c r="BL83" s="7"/>
+      <c r="BM83" s="7"/>
+      <c r="BN83" s="7"/>
+      <c r="BO83" s="7"/>
+      <c r="BP83" s="7"/>
+      <c r="BQ83" s="7"/>
+      <c r="BR83" s="7"/>
+      <c r="BS83" s="7"/>
+      <c r="BT83" s="7"/>
+      <c r="BU83" s="7"/>
+      <c r="BV83" s="7"/>
+      <c r="BW83" s="7"/>
+      <c r="BX83" s="7"/>
+      <c r="BY83" s="7"/>
+      <c r="BZ83" s="7"/>
+      <c r="CA83" s="7"/>
+      <c r="CB83" s="7"/>
+      <c r="CC83" s="7"/>
+      <c r="CD83" s="7"/>
+      <c r="CE83" s="7"/>
+      <c r="CF83" s="7"/>
+      <c r="CG83" s="7"/>
+      <c r="CH83" s="7"/>
+      <c r="CI83" s="7"/>
+      <c r="CJ83" s="7"/>
+      <c r="CK83" s="7"/>
+      <c r="CL83" s="7"/>
+      <c r="CM83" s="7"/>
+      <c r="CN83" s="7"/>
+      <c r="CO83" s="7"/>
+      <c r="CP83" s="7"/>
+      <c r="CQ83" s="7"/>
+      <c r="CR83" s="7"/>
+      <c r="CS83" s="7"/>
+      <c r="CT83" s="7"/>
+      <c r="CU83" s="7"/>
+      <c r="CV83" s="7"/>
+      <c r="CW83" s="7"/>
+      <c r="CX83" s="7"/>
+      <c r="CY83" s="7"/>
+      <c r="CZ83" s="7"/>
+      <c r="DA83" s="7"/>
     </row>
     <row r="84" spans="1:105" ht="16.5" customHeight="1">
       <c r="A84" s="12" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E84" s="19" t="s">
-        <v>239</v>
+        <v>343</v>
       </c>
       <c r="F84" s="12">
         <v>10</v>
       </c>
       <c r="G84" s="12">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:105" ht="16.5" customHeight="1">
-      <c r="A85" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="B85" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="C85" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="D85" s="13" t="s">
-        <v>164</v>
+      <c r="A85" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>237</v>
       </c>
       <c r="E85" s="19" t="s">
-        <v>339</v>
+        <v>238</v>
       </c>
       <c r="F85" s="12">
         <v>10</v>
       </c>
       <c r="G85" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:105" s="8" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A86" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B86" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C86" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D86" s="12" t="s">
-        <v>28</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:105" ht="16.5" customHeight="1">
+      <c r="A86" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="E86" s="19" t="s">
-        <v>29</v>
+        <v>337</v>
       </c>
       <c r="F86" s="12">
         <v>10</v>
       </c>
-      <c r="G86" s="12"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="7"/>
-      <c r="K86" s="7"/>
-      <c r="L86" s="7"/>
-      <c r="M86" s="7"/>
-      <c r="N86" s="7"/>
-      <c r="O86" s="7"/>
-      <c r="P86" s="7"/>
-      <c r="Q86" s="7"/>
-      <c r="R86" s="7"/>
-      <c r="S86" s="7"/>
-      <c r="T86" s="7"/>
-      <c r="U86" s="7"/>
-      <c r="V86" s="7"/>
-      <c r="W86" s="7"/>
-      <c r="X86" s="7"/>
-      <c r="Y86" s="7"/>
-      <c r="Z86" s="7"/>
-      <c r="AA86" s="7"/>
-      <c r="AB86" s="7"/>
-      <c r="AC86" s="7"/>
-      <c r="AD86" s="7"/>
-      <c r="AE86" s="7"/>
-      <c r="AF86" s="7"/>
-      <c r="AG86" s="7"/>
-      <c r="AH86" s="7"/>
-      <c r="AI86" s="7"/>
-      <c r="AJ86" s="7"/>
-      <c r="AK86" s="7"/>
-      <c r="AL86" s="7"/>
-      <c r="AM86" s="7"/>
-      <c r="AN86" s="7"/>
-      <c r="AO86" s="7"/>
-      <c r="AP86" s="7"/>
-      <c r="AQ86" s="7"/>
-      <c r="AR86" s="7"/>
-      <c r="AS86" s="7"/>
-      <c r="AT86" s="7"/>
-      <c r="AU86" s="7"/>
-      <c r="AV86" s="7"/>
-      <c r="AW86" s="7"/>
-      <c r="AX86" s="7"/>
-      <c r="AY86" s="7"/>
-      <c r="AZ86" s="7"/>
-      <c r="BA86" s="7"/>
-      <c r="BB86" s="7"/>
-      <c r="BC86" s="7"/>
-      <c r="BD86" s="7"/>
-      <c r="BE86" s="7"/>
-      <c r="BF86" s="7"/>
-      <c r="BG86" s="7"/>
-      <c r="BH86" s="7"/>
-      <c r="BI86" s="7"/>
-      <c r="BJ86" s="7"/>
-      <c r="BK86" s="7"/>
-      <c r="BL86" s="7"/>
-      <c r="BM86" s="7"/>
-      <c r="BN86" s="7"/>
-      <c r="BO86" s="7"/>
-      <c r="BP86" s="7"/>
-      <c r="BQ86" s="7"/>
-      <c r="BR86" s="7"/>
-      <c r="BS86" s="7"/>
-      <c r="BT86" s="7"/>
-      <c r="BU86" s="7"/>
-      <c r="BV86" s="7"/>
-      <c r="BW86" s="7"/>
-      <c r="BX86" s="7"/>
-      <c r="BY86" s="7"/>
-      <c r="BZ86" s="7"/>
-      <c r="CA86" s="7"/>
-      <c r="CB86" s="7"/>
-      <c r="CC86" s="7"/>
-      <c r="CD86" s="7"/>
-      <c r="CE86" s="7"/>
-      <c r="CF86" s="7"/>
-      <c r="CG86" s="7"/>
-      <c r="CH86" s="7"/>
-      <c r="CI86" s="7"/>
-      <c r="CJ86" s="7"/>
-      <c r="CK86" s="7"/>
-      <c r="CL86" s="7"/>
-      <c r="CM86" s="7"/>
-      <c r="CN86" s="7"/>
-      <c r="CO86" s="7"/>
-      <c r="CP86" s="7"/>
-      <c r="CQ86" s="7"/>
-      <c r="CR86" s="7"/>
-      <c r="CS86" s="7"/>
-      <c r="CT86" s="7"/>
-      <c r="CU86" s="7"/>
-      <c r="CV86" s="7"/>
-      <c r="CW86" s="7"/>
-      <c r="CX86" s="7"/>
-      <c r="CY86" s="7"/>
-      <c r="CZ86" s="7"/>
-      <c r="DA86" s="7"/>
-    </row>
-    <row r="87" spans="1:105" s="8" customFormat="1">
+      <c r="G86" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:105" s="8" customFormat="1" ht="16.5" customHeight="1">
       <c r="A87" s="12" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D87" s="25" t="s">
-        <v>38</v>
+        <v>27</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="E87" s="19" t="s">
         <v>29</v>
@@ -5349,18 +5364,18 @@
       <c r="CZ87" s="7"/>
       <c r="DA87" s="7"/>
     </row>
-    <row r="88" spans="1:105" ht="16.5" customHeight="1">
+    <row r="88" spans="1:105" s="8" customFormat="1">
       <c r="A88" s="12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D88" s="12" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="D88" s="25" t="s">
+        <v>38</v>
       </c>
       <c r="E88" s="19" t="s">
         <v>29</v>
@@ -5368,332 +5383,428 @@
       <c r="F88" s="12">
         <v>10</v>
       </c>
-      <c r="G88" s="12">
-        <v>3</v>
-      </c>
+      <c r="G88" s="12"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
+      <c r="N88" s="7"/>
+      <c r="O88" s="7"/>
+      <c r="P88" s="7"/>
+      <c r="Q88" s="7"/>
+      <c r="R88" s="7"/>
+      <c r="S88" s="7"/>
+      <c r="T88" s="7"/>
+      <c r="U88" s="7"/>
+      <c r="V88" s="7"/>
+      <c r="W88" s="7"/>
+      <c r="X88" s="7"/>
+      <c r="Y88" s="7"/>
+      <c r="Z88" s="7"/>
+      <c r="AA88" s="7"/>
+      <c r="AB88" s="7"/>
+      <c r="AC88" s="7"/>
+      <c r="AD88" s="7"/>
+      <c r="AE88" s="7"/>
+      <c r="AF88" s="7"/>
+      <c r="AG88" s="7"/>
+      <c r="AH88" s="7"/>
+      <c r="AI88" s="7"/>
+      <c r="AJ88" s="7"/>
+      <c r="AK88" s="7"/>
+      <c r="AL88" s="7"/>
+      <c r="AM88" s="7"/>
+      <c r="AN88" s="7"/>
+      <c r="AO88" s="7"/>
+      <c r="AP88" s="7"/>
+      <c r="AQ88" s="7"/>
+      <c r="AR88" s="7"/>
+      <c r="AS88" s="7"/>
+      <c r="AT88" s="7"/>
+      <c r="AU88" s="7"/>
+      <c r="AV88" s="7"/>
+      <c r="AW88" s="7"/>
+      <c r="AX88" s="7"/>
+      <c r="AY88" s="7"/>
+      <c r="AZ88" s="7"/>
+      <c r="BA88" s="7"/>
+      <c r="BB88" s="7"/>
+      <c r="BC88" s="7"/>
+      <c r="BD88" s="7"/>
+      <c r="BE88" s="7"/>
+      <c r="BF88" s="7"/>
+      <c r="BG88" s="7"/>
+      <c r="BH88" s="7"/>
+      <c r="BI88" s="7"/>
+      <c r="BJ88" s="7"/>
+      <c r="BK88" s="7"/>
+      <c r="BL88" s="7"/>
+      <c r="BM88" s="7"/>
+      <c r="BN88" s="7"/>
+      <c r="BO88" s="7"/>
+      <c r="BP88" s="7"/>
+      <c r="BQ88" s="7"/>
+      <c r="BR88" s="7"/>
+      <c r="BS88" s="7"/>
+      <c r="BT88" s="7"/>
+      <c r="BU88" s="7"/>
+      <c r="BV88" s="7"/>
+      <c r="BW88" s="7"/>
+      <c r="BX88" s="7"/>
+      <c r="BY88" s="7"/>
+      <c r="BZ88" s="7"/>
+      <c r="CA88" s="7"/>
+      <c r="CB88" s="7"/>
+      <c r="CC88" s="7"/>
+      <c r="CD88" s="7"/>
+      <c r="CE88" s="7"/>
+      <c r="CF88" s="7"/>
+      <c r="CG88" s="7"/>
+      <c r="CH88" s="7"/>
+      <c r="CI88" s="7"/>
+      <c r="CJ88" s="7"/>
+      <c r="CK88" s="7"/>
+      <c r="CL88" s="7"/>
+      <c r="CM88" s="7"/>
+      <c r="CN88" s="7"/>
+      <c r="CO88" s="7"/>
+      <c r="CP88" s="7"/>
+      <c r="CQ88" s="7"/>
+      <c r="CR88" s="7"/>
+      <c r="CS88" s="7"/>
+      <c r="CT88" s="7"/>
+      <c r="CU88" s="7"/>
+      <c r="CV88" s="7"/>
+      <c r="CW88" s="7"/>
+      <c r="CX88" s="7"/>
+      <c r="CY88" s="7"/>
+      <c r="CZ88" s="7"/>
+      <c r="DA88" s="7"/>
     </row>
     <row r="89" spans="1:105" ht="16.5" customHeight="1">
       <c r="A89" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E89" s="19" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F89" s="12">
         <v>10</v>
       </c>
       <c r="G89" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="90" spans="1:105" s="8" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A90" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="B90" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="C90" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D90" s="13" t="s">
-        <v>170</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:105" ht="16.5" customHeight="1">
+      <c r="A90" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="E90" s="19" t="s">
-        <v>371</v>
+        <v>36</v>
       </c>
       <c r="F90" s="12">
         <v>10</v>
       </c>
-      <c r="G90" s="12"/>
-      <c r="H90" s="7"/>
-      <c r="I90" s="7"/>
-      <c r="J90" s="7"/>
-      <c r="K90" s="7"/>
-      <c r="L90" s="7"/>
-      <c r="M90" s="7"/>
-      <c r="N90" s="7"/>
-      <c r="O90" s="7"/>
-      <c r="P90" s="7"/>
-      <c r="Q90" s="7"/>
-      <c r="R90" s="7"/>
-      <c r="S90" s="7"/>
-      <c r="T90" s="7"/>
-      <c r="U90" s="7"/>
-      <c r="V90" s="7"/>
-      <c r="W90" s="7"/>
-      <c r="X90" s="7"/>
-      <c r="Y90" s="7"/>
-      <c r="Z90" s="7"/>
-      <c r="AA90" s="7"/>
-      <c r="AB90" s="7"/>
-      <c r="AC90" s="7"/>
-      <c r="AD90" s="7"/>
-      <c r="AE90" s="7"/>
-      <c r="AF90" s="7"/>
-      <c r="AG90" s="7"/>
-      <c r="AH90" s="7"/>
-      <c r="AI90" s="7"/>
-      <c r="AJ90" s="7"/>
-      <c r="AK90" s="7"/>
-      <c r="AL90" s="7"/>
-      <c r="AM90" s="7"/>
-      <c r="AN90" s="7"/>
-      <c r="AO90" s="7"/>
-      <c r="AP90" s="7"/>
-      <c r="AQ90" s="7"/>
-      <c r="AR90" s="7"/>
-      <c r="AS90" s="7"/>
-      <c r="AT90" s="7"/>
-      <c r="AU90" s="7"/>
-      <c r="AV90" s="7"/>
-      <c r="AW90" s="7"/>
-      <c r="AX90" s="7"/>
-      <c r="AY90" s="7"/>
-      <c r="AZ90" s="7"/>
-      <c r="BA90" s="7"/>
-      <c r="BB90" s="7"/>
-      <c r="BC90" s="7"/>
-      <c r="BD90" s="7"/>
-      <c r="BE90" s="7"/>
-      <c r="BF90" s="7"/>
-      <c r="BG90" s="7"/>
-      <c r="BH90" s="7"/>
-      <c r="BI90" s="7"/>
-      <c r="BJ90" s="7"/>
-      <c r="BK90" s="7"/>
-      <c r="BL90" s="7"/>
-      <c r="BM90" s="7"/>
-      <c r="BN90" s="7"/>
-      <c r="BO90" s="7"/>
-      <c r="BP90" s="7"/>
-      <c r="BQ90" s="7"/>
-      <c r="BR90" s="7"/>
-      <c r="BS90" s="7"/>
-      <c r="BT90" s="7"/>
-      <c r="BU90" s="7"/>
-      <c r="BV90" s="7"/>
-      <c r="BW90" s="7"/>
-      <c r="BX90" s="7"/>
-      <c r="BY90" s="7"/>
-      <c r="BZ90" s="7"/>
-      <c r="CA90" s="7"/>
-      <c r="CB90" s="7"/>
-      <c r="CC90" s="7"/>
-      <c r="CD90" s="7"/>
-      <c r="CE90" s="7"/>
-      <c r="CF90" s="7"/>
-      <c r="CG90" s="7"/>
-      <c r="CH90" s="7"/>
-      <c r="CI90" s="7"/>
-      <c r="CJ90" s="7"/>
-      <c r="CK90" s="7"/>
-      <c r="CL90" s="7"/>
-      <c r="CM90" s="7"/>
-      <c r="CN90" s="7"/>
-      <c r="CO90" s="7"/>
-      <c r="CP90" s="7"/>
-      <c r="CQ90" s="7"/>
-      <c r="CR90" s="7"/>
-      <c r="CS90" s="7"/>
-      <c r="CT90" s="7"/>
-      <c r="CU90" s="7"/>
-      <c r="CV90" s="7"/>
-      <c r="CW90" s="7"/>
-      <c r="CX90" s="7"/>
-      <c r="CY90" s="7"/>
-      <c r="CZ90" s="7"/>
-      <c r="DA90" s="7"/>
-    </row>
-    <row r="91" spans="1:105" ht="16.5" customHeight="1">
+      <c r="G90" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="1:105" s="8" customFormat="1" ht="16.5" customHeight="1">
       <c r="A91" s="13" t="s">
-        <v>97</v>
+        <v>168</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>98</v>
+        <v>312</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>98</v>
+        <v>169</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="E91" s="19" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="F91" s="12">
         <v>10</v>
       </c>
-      <c r="G91" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:105" s="8" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A92" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B92" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C92" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D92" s="12" t="s">
-        <v>84</v>
+      <c r="G91" s="12"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="7"/>
+      <c r="K91" s="7"/>
+      <c r="L91" s="7"/>
+      <c r="M91" s="7"/>
+      <c r="N91" s="7"/>
+      <c r="O91" s="7"/>
+      <c r="P91" s="7"/>
+      <c r="Q91" s="7"/>
+      <c r="R91" s="7"/>
+      <c r="S91" s="7"/>
+      <c r="T91" s="7"/>
+      <c r="U91" s="7"/>
+      <c r="V91" s="7"/>
+      <c r="W91" s="7"/>
+      <c r="X91" s="7"/>
+      <c r="Y91" s="7"/>
+      <c r="Z91" s="7"/>
+      <c r="AA91" s="7"/>
+      <c r="AB91" s="7"/>
+      <c r="AC91" s="7"/>
+      <c r="AD91" s="7"/>
+      <c r="AE91" s="7"/>
+      <c r="AF91" s="7"/>
+      <c r="AG91" s="7"/>
+      <c r="AH91" s="7"/>
+      <c r="AI91" s="7"/>
+      <c r="AJ91" s="7"/>
+      <c r="AK91" s="7"/>
+      <c r="AL91" s="7"/>
+      <c r="AM91" s="7"/>
+      <c r="AN91" s="7"/>
+      <c r="AO91" s="7"/>
+      <c r="AP91" s="7"/>
+      <c r="AQ91" s="7"/>
+      <c r="AR91" s="7"/>
+      <c r="AS91" s="7"/>
+      <c r="AT91" s="7"/>
+      <c r="AU91" s="7"/>
+      <c r="AV91" s="7"/>
+      <c r="AW91" s="7"/>
+      <c r="AX91" s="7"/>
+      <c r="AY91" s="7"/>
+      <c r="AZ91" s="7"/>
+      <c r="BA91" s="7"/>
+      <c r="BB91" s="7"/>
+      <c r="BC91" s="7"/>
+      <c r="BD91" s="7"/>
+      <c r="BE91" s="7"/>
+      <c r="BF91" s="7"/>
+      <c r="BG91" s="7"/>
+      <c r="BH91" s="7"/>
+      <c r="BI91" s="7"/>
+      <c r="BJ91" s="7"/>
+      <c r="BK91" s="7"/>
+      <c r="BL91" s="7"/>
+      <c r="BM91" s="7"/>
+      <c r="BN91" s="7"/>
+      <c r="BO91" s="7"/>
+      <c r="BP91" s="7"/>
+      <c r="BQ91" s="7"/>
+      <c r="BR91" s="7"/>
+      <c r="BS91" s="7"/>
+      <c r="BT91" s="7"/>
+      <c r="BU91" s="7"/>
+      <c r="BV91" s="7"/>
+      <c r="BW91" s="7"/>
+      <c r="BX91" s="7"/>
+      <c r="BY91" s="7"/>
+      <c r="BZ91" s="7"/>
+      <c r="CA91" s="7"/>
+      <c r="CB91" s="7"/>
+      <c r="CC91" s="7"/>
+      <c r="CD91" s="7"/>
+      <c r="CE91" s="7"/>
+      <c r="CF91" s="7"/>
+      <c r="CG91" s="7"/>
+      <c r="CH91" s="7"/>
+      <c r="CI91" s="7"/>
+      <c r="CJ91" s="7"/>
+      <c r="CK91" s="7"/>
+      <c r="CL91" s="7"/>
+      <c r="CM91" s="7"/>
+      <c r="CN91" s="7"/>
+      <c r="CO91" s="7"/>
+      <c r="CP91" s="7"/>
+      <c r="CQ91" s="7"/>
+      <c r="CR91" s="7"/>
+      <c r="CS91" s="7"/>
+      <c r="CT91" s="7"/>
+      <c r="CU91" s="7"/>
+      <c r="CV91" s="7"/>
+      <c r="CW91" s="7"/>
+      <c r="CX91" s="7"/>
+      <c r="CY91" s="7"/>
+      <c r="CZ91" s="7"/>
+      <c r="DA91" s="7"/>
+    </row>
+    <row r="92" spans="1:105" ht="16.5" customHeight="1">
+      <c r="A92" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>99</v>
       </c>
       <c r="E92" s="19" t="s">
-        <v>85</v>
+        <v>378</v>
       </c>
       <c r="F92" s="12">
         <v>10</v>
       </c>
-      <c r="G92" s="12"/>
-      <c r="H92" s="7"/>
-      <c r="I92" s="7"/>
-      <c r="J92" s="7"/>
-      <c r="K92" s="7"/>
-      <c r="L92" s="7"/>
-      <c r="M92" s="7"/>
-      <c r="N92" s="7"/>
-      <c r="O92" s="7"/>
-      <c r="P92" s="7"/>
-      <c r="Q92" s="7"/>
-      <c r="R92" s="7"/>
-      <c r="S92" s="7"/>
-      <c r="T92" s="7"/>
-      <c r="U92" s="7"/>
-      <c r="V92" s="7"/>
-      <c r="W92" s="7"/>
-      <c r="X92" s="7"/>
-      <c r="Y92" s="7"/>
-      <c r="Z92" s="7"/>
-      <c r="AA92" s="7"/>
-      <c r="AB92" s="7"/>
-      <c r="AC92" s="7"/>
-      <c r="AD92" s="7"/>
-      <c r="AE92" s="7"/>
-      <c r="AF92" s="7"/>
-      <c r="AG92" s="7"/>
-      <c r="AH92" s="7"/>
-      <c r="AI92" s="7"/>
-      <c r="AJ92" s="7"/>
-      <c r="AK92" s="7"/>
-      <c r="AL92" s="7"/>
-      <c r="AM92" s="7"/>
-      <c r="AN92" s="7"/>
-      <c r="AO92" s="7"/>
-      <c r="AP92" s="7"/>
-      <c r="AQ92" s="7"/>
-      <c r="AR92" s="7"/>
-      <c r="AS92" s="7"/>
-      <c r="AT92" s="7"/>
-      <c r="AU92" s="7"/>
-      <c r="AV92" s="7"/>
-      <c r="AW92" s="7"/>
-      <c r="AX92" s="7"/>
-      <c r="AY92" s="7"/>
-      <c r="AZ92" s="7"/>
-      <c r="BA92" s="7"/>
-      <c r="BB92" s="7"/>
-      <c r="BC92" s="7"/>
-      <c r="BD92" s="7"/>
-      <c r="BE92" s="7"/>
-      <c r="BF92" s="7"/>
-      <c r="BG92" s="7"/>
-      <c r="BH92" s="7"/>
-      <c r="BI92" s="7"/>
-      <c r="BJ92" s="7"/>
-      <c r="BK92" s="7"/>
-      <c r="BL92" s="7"/>
-      <c r="BM92" s="7"/>
-      <c r="BN92" s="7"/>
-      <c r="BO92" s="7"/>
-      <c r="BP92" s="7"/>
-      <c r="BQ92" s="7"/>
-      <c r="BR92" s="7"/>
-      <c r="BS92" s="7"/>
-      <c r="BT92" s="7"/>
-      <c r="BU92" s="7"/>
-      <c r="BV92" s="7"/>
-      <c r="BW92" s="7"/>
-      <c r="BX92" s="7"/>
-      <c r="BY92" s="7"/>
-      <c r="BZ92" s="7"/>
-      <c r="CA92" s="7"/>
-      <c r="CB92" s="7"/>
-      <c r="CC92" s="7"/>
-      <c r="CD92" s="7"/>
-      <c r="CE92" s="7"/>
-      <c r="CF92" s="7"/>
-      <c r="CG92" s="7"/>
-      <c r="CH92" s="7"/>
-      <c r="CI92" s="7"/>
-      <c r="CJ92" s="7"/>
-      <c r="CK92" s="7"/>
-      <c r="CL92" s="7"/>
-      <c r="CM92" s="7"/>
-      <c r="CN92" s="7"/>
-      <c r="CO92" s="7"/>
-      <c r="CP92" s="7"/>
-      <c r="CQ92" s="7"/>
-      <c r="CR92" s="7"/>
-      <c r="CS92" s="7"/>
-      <c r="CT92" s="7"/>
-      <c r="CU92" s="7"/>
-      <c r="CV92" s="7"/>
-      <c r="CW92" s="7"/>
-      <c r="CX92" s="7"/>
-      <c r="CY92" s="7"/>
-      <c r="CZ92" s="7"/>
-      <c r="DA92" s="7"/>
-    </row>
-    <row r="93" spans="1:105" ht="16.5" customHeight="1">
+      <c r="G92" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:105" s="8" customFormat="1" ht="16.5" customHeight="1">
       <c r="A93" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E93" s="19" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F93" s="12">
         <v>10</v>
       </c>
-      <c r="G93" s="12">
-        <v>3</v>
-      </c>
+      <c r="G93" s="12"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="7"/>
+      <c r="M93" s="7"/>
+      <c r="N93" s="7"/>
+      <c r="O93" s="7"/>
+      <c r="P93" s="7"/>
+      <c r="Q93" s="7"/>
+      <c r="R93" s="7"/>
+      <c r="S93" s="7"/>
+      <c r="T93" s="7"/>
+      <c r="U93" s="7"/>
+      <c r="V93" s="7"/>
+      <c r="W93" s="7"/>
+      <c r="X93" s="7"/>
+      <c r="Y93" s="7"/>
+      <c r="Z93" s="7"/>
+      <c r="AA93" s="7"/>
+      <c r="AB93" s="7"/>
+      <c r="AC93" s="7"/>
+      <c r="AD93" s="7"/>
+      <c r="AE93" s="7"/>
+      <c r="AF93" s="7"/>
+      <c r="AG93" s="7"/>
+      <c r="AH93" s="7"/>
+      <c r="AI93" s="7"/>
+      <c r="AJ93" s="7"/>
+      <c r="AK93" s="7"/>
+      <c r="AL93" s="7"/>
+      <c r="AM93" s="7"/>
+      <c r="AN93" s="7"/>
+      <c r="AO93" s="7"/>
+      <c r="AP93" s="7"/>
+      <c r="AQ93" s="7"/>
+      <c r="AR93" s="7"/>
+      <c r="AS93" s="7"/>
+      <c r="AT93" s="7"/>
+      <c r="AU93" s="7"/>
+      <c r="AV93" s="7"/>
+      <c r="AW93" s="7"/>
+      <c r="AX93" s="7"/>
+      <c r="AY93" s="7"/>
+      <c r="AZ93" s="7"/>
+      <c r="BA93" s="7"/>
+      <c r="BB93" s="7"/>
+      <c r="BC93" s="7"/>
+      <c r="BD93" s="7"/>
+      <c r="BE93" s="7"/>
+      <c r="BF93" s="7"/>
+      <c r="BG93" s="7"/>
+      <c r="BH93" s="7"/>
+      <c r="BI93" s="7"/>
+      <c r="BJ93" s="7"/>
+      <c r="BK93" s="7"/>
+      <c r="BL93" s="7"/>
+      <c r="BM93" s="7"/>
+      <c r="BN93" s="7"/>
+      <c r="BO93" s="7"/>
+      <c r="BP93" s="7"/>
+      <c r="BQ93" s="7"/>
+      <c r="BR93" s="7"/>
+      <c r="BS93" s="7"/>
+      <c r="BT93" s="7"/>
+      <c r="BU93" s="7"/>
+      <c r="BV93" s="7"/>
+      <c r="BW93" s="7"/>
+      <c r="BX93" s="7"/>
+      <c r="BY93" s="7"/>
+      <c r="BZ93" s="7"/>
+      <c r="CA93" s="7"/>
+      <c r="CB93" s="7"/>
+      <c r="CC93" s="7"/>
+      <c r="CD93" s="7"/>
+      <c r="CE93" s="7"/>
+      <c r="CF93" s="7"/>
+      <c r="CG93" s="7"/>
+      <c r="CH93" s="7"/>
+      <c r="CI93" s="7"/>
+      <c r="CJ93" s="7"/>
+      <c r="CK93" s="7"/>
+      <c r="CL93" s="7"/>
+      <c r="CM93" s="7"/>
+      <c r="CN93" s="7"/>
+      <c r="CO93" s="7"/>
+      <c r="CP93" s="7"/>
+      <c r="CQ93" s="7"/>
+      <c r="CR93" s="7"/>
+      <c r="CS93" s="7"/>
+      <c r="CT93" s="7"/>
+      <c r="CU93" s="7"/>
+      <c r="CV93" s="7"/>
+      <c r="CW93" s="7"/>
+      <c r="CX93" s="7"/>
+      <c r="CY93" s="7"/>
+      <c r="CZ93" s="7"/>
+      <c r="DA93" s="7"/>
     </row>
     <row r="94" spans="1:105" ht="16.5" customHeight="1">
       <c r="A94" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B94" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="C94" s="14" t="s">
-        <v>352</v>
+        <v>86</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E94" s="19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F94" s="12">
         <v>10</v>
@@ -5704,19 +5815,19 @@
     </row>
     <row r="95" spans="1:105" ht="16.5" customHeight="1">
       <c r="A95" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B95" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C95" s="12" t="s">
-        <v>95</v>
+        <v>91</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="C95" s="14" t="s">
+        <v>350</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E95" s="19" t="s">
-        <v>330</v>
+        <v>93</v>
       </c>
       <c r="F95" s="12">
         <v>10</v>
@@ -5725,282 +5836,186 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:105" s="8" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A96" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="B96" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="C96" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="D96" s="13" t="s">
-        <v>309</v>
+    <row r="96" spans="1:105" ht="16.5" customHeight="1">
+      <c r="A96" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="E96" s="19" t="s">
-        <v>368</v>
+        <v>328</v>
       </c>
       <c r="F96" s="12">
         <v>10</v>
       </c>
-      <c r="G96" s="12"/>
-      <c r="H96" s="7"/>
-      <c r="I96" s="7"/>
-      <c r="J96" s="7"/>
-      <c r="K96" s="7"/>
-      <c r="L96" s="7"/>
-      <c r="M96" s="7"/>
-      <c r="N96" s="7"/>
-      <c r="O96" s="7"/>
-      <c r="P96" s="7"/>
-      <c r="Q96" s="7"/>
-      <c r="R96" s="7"/>
-      <c r="S96" s="7"/>
-      <c r="T96" s="7"/>
-      <c r="U96" s="7"/>
-      <c r="V96" s="7"/>
-      <c r="W96" s="7"/>
-      <c r="X96" s="7"/>
-      <c r="Y96" s="7"/>
-      <c r="Z96" s="7"/>
-      <c r="AA96" s="7"/>
-      <c r="AB96" s="7"/>
-      <c r="AC96" s="7"/>
-      <c r="AD96" s="7"/>
-      <c r="AE96" s="7"/>
-      <c r="AF96" s="7"/>
-      <c r="AG96" s="7"/>
-      <c r="AH96" s="7"/>
-      <c r="AI96" s="7"/>
-      <c r="AJ96" s="7"/>
-      <c r="AK96" s="7"/>
-      <c r="AL96" s="7"/>
-      <c r="AM96" s="7"/>
-      <c r="AN96" s="7"/>
-      <c r="AO96" s="7"/>
-      <c r="AP96" s="7"/>
-      <c r="AQ96" s="7"/>
-      <c r="AR96" s="7"/>
-      <c r="AS96" s="7"/>
-      <c r="AT96" s="7"/>
-      <c r="AU96" s="7"/>
-      <c r="AV96" s="7"/>
-      <c r="AW96" s="7"/>
-      <c r="AX96" s="7"/>
-      <c r="AY96" s="7"/>
-      <c r="AZ96" s="7"/>
-      <c r="BA96" s="7"/>
-      <c r="BB96" s="7"/>
-      <c r="BC96" s="7"/>
-      <c r="BD96" s="7"/>
-      <c r="BE96" s="7"/>
-      <c r="BF96" s="7"/>
-      <c r="BG96" s="7"/>
-      <c r="BH96" s="7"/>
-      <c r="BI96" s="7"/>
-      <c r="BJ96" s="7"/>
-      <c r="BK96" s="7"/>
-      <c r="BL96" s="7"/>
-      <c r="BM96" s="7"/>
-      <c r="BN96" s="7"/>
-      <c r="BO96" s="7"/>
-      <c r="BP96" s="7"/>
-      <c r="BQ96" s="7"/>
-      <c r="BR96" s="7"/>
-      <c r="BS96" s="7"/>
-      <c r="BT96" s="7"/>
-      <c r="BU96" s="7"/>
-      <c r="BV96" s="7"/>
-      <c r="BW96" s="7"/>
-      <c r="BX96" s="7"/>
-      <c r="BY96" s="7"/>
-      <c r="BZ96" s="7"/>
-      <c r="CA96" s="7"/>
-      <c r="CB96" s="7"/>
-      <c r="CC96" s="7"/>
-      <c r="CD96" s="7"/>
-      <c r="CE96" s="7"/>
-      <c r="CF96" s="7"/>
-      <c r="CG96" s="7"/>
-      <c r="CH96" s="7"/>
-      <c r="CI96" s="7"/>
-      <c r="CJ96" s="7"/>
-      <c r="CK96" s="7"/>
-      <c r="CL96" s="7"/>
-      <c r="CM96" s="7"/>
-      <c r="CN96" s="7"/>
-      <c r="CO96" s="7"/>
-      <c r="CP96" s="7"/>
-      <c r="CQ96" s="7"/>
-      <c r="CR96" s="7"/>
-      <c r="CS96" s="7"/>
-      <c r="CT96" s="7"/>
-      <c r="CU96" s="7"/>
-      <c r="CV96" s="7"/>
-      <c r="CW96" s="7"/>
-      <c r="CX96" s="7"/>
-      <c r="CY96" s="7"/>
-      <c r="CZ96" s="7"/>
-      <c r="DA96" s="7"/>
-    </row>
-    <row r="97" spans="1:105" ht="16.5" customHeight="1">
+      <c r="G96" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:105" s="8" customFormat="1" ht="16.5" customHeight="1">
       <c r="A97" s="13" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>188</v>
+        <v>305</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>188</v>
+        <v>306</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>189</v>
+        <v>307</v>
       </c>
       <c r="E97" s="19" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="F97" s="12">
         <v>10</v>
       </c>
-      <c r="G97" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:105" s="8" customFormat="1" ht="16.5" customHeight="1">
+      <c r="G97" s="12"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
+      <c r="K97" s="7"/>
+      <c r="L97" s="7"/>
+      <c r="M97" s="7"/>
+      <c r="N97" s="7"/>
+      <c r="O97" s="7"/>
+      <c r="P97" s="7"/>
+      <c r="Q97" s="7"/>
+      <c r="R97" s="7"/>
+      <c r="S97" s="7"/>
+      <c r="T97" s="7"/>
+      <c r="U97" s="7"/>
+      <c r="V97" s="7"/>
+      <c r="W97" s="7"/>
+      <c r="X97" s="7"/>
+      <c r="Y97" s="7"/>
+      <c r="Z97" s="7"/>
+      <c r="AA97" s="7"/>
+      <c r="AB97" s="7"/>
+      <c r="AC97" s="7"/>
+      <c r="AD97" s="7"/>
+      <c r="AE97" s="7"/>
+      <c r="AF97" s="7"/>
+      <c r="AG97" s="7"/>
+      <c r="AH97" s="7"/>
+      <c r="AI97" s="7"/>
+      <c r="AJ97" s="7"/>
+      <c r="AK97" s="7"/>
+      <c r="AL97" s="7"/>
+      <c r="AM97" s="7"/>
+      <c r="AN97" s="7"/>
+      <c r="AO97" s="7"/>
+      <c r="AP97" s="7"/>
+      <c r="AQ97" s="7"/>
+      <c r="AR97" s="7"/>
+      <c r="AS97" s="7"/>
+      <c r="AT97" s="7"/>
+      <c r="AU97" s="7"/>
+      <c r="AV97" s="7"/>
+      <c r="AW97" s="7"/>
+      <c r="AX97" s="7"/>
+      <c r="AY97" s="7"/>
+      <c r="AZ97" s="7"/>
+      <c r="BA97" s="7"/>
+      <c r="BB97" s="7"/>
+      <c r="BC97" s="7"/>
+      <c r="BD97" s="7"/>
+      <c r="BE97" s="7"/>
+      <c r="BF97" s="7"/>
+      <c r="BG97" s="7"/>
+      <c r="BH97" s="7"/>
+      <c r="BI97" s="7"/>
+      <c r="BJ97" s="7"/>
+      <c r="BK97" s="7"/>
+      <c r="BL97" s="7"/>
+      <c r="BM97" s="7"/>
+      <c r="BN97" s="7"/>
+      <c r="BO97" s="7"/>
+      <c r="BP97" s="7"/>
+      <c r="BQ97" s="7"/>
+      <c r="BR97" s="7"/>
+      <c r="BS97" s="7"/>
+      <c r="BT97" s="7"/>
+      <c r="BU97" s="7"/>
+      <c r="BV97" s="7"/>
+      <c r="BW97" s="7"/>
+      <c r="BX97" s="7"/>
+      <c r="BY97" s="7"/>
+      <c r="BZ97" s="7"/>
+      <c r="CA97" s="7"/>
+      <c r="CB97" s="7"/>
+      <c r="CC97" s="7"/>
+      <c r="CD97" s="7"/>
+      <c r="CE97" s="7"/>
+      <c r="CF97" s="7"/>
+      <c r="CG97" s="7"/>
+      <c r="CH97" s="7"/>
+      <c r="CI97" s="7"/>
+      <c r="CJ97" s="7"/>
+      <c r="CK97" s="7"/>
+      <c r="CL97" s="7"/>
+      <c r="CM97" s="7"/>
+      <c r="CN97" s="7"/>
+      <c r="CO97" s="7"/>
+      <c r="CP97" s="7"/>
+      <c r="CQ97" s="7"/>
+      <c r="CR97" s="7"/>
+      <c r="CS97" s="7"/>
+      <c r="CT97" s="7"/>
+      <c r="CU97" s="7"/>
+      <c r="CV97" s="7"/>
+      <c r="CW97" s="7"/>
+      <c r="CX97" s="7"/>
+      <c r="CY97" s="7"/>
+      <c r="CZ97" s="7"/>
+      <c r="DA97" s="7"/>
+    </row>
+    <row r="98" spans="1:105" ht="16.5" customHeight="1">
       <c r="A98" s="13" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>317</v>
+        <v>188</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>318</v>
+        <v>188</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>92</v>
+        <v>189</v>
       </c>
       <c r="E98" s="19" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F98" s="12">
         <v>10</v>
       </c>
-      <c r="G98" s="12"/>
-      <c r="H98" s="7"/>
-      <c r="I98" s="7"/>
-      <c r="J98" s="7"/>
-      <c r="K98" s="7"/>
-      <c r="L98" s="7"/>
-      <c r="M98" s="7"/>
-      <c r="N98" s="7"/>
-      <c r="O98" s="7"/>
-      <c r="P98" s="7"/>
-      <c r="Q98" s="7"/>
-      <c r="R98" s="7"/>
-      <c r="S98" s="7"/>
-      <c r="T98" s="7"/>
-      <c r="U98" s="7"/>
-      <c r="V98" s="7"/>
-      <c r="W98" s="7"/>
-      <c r="X98" s="7"/>
-      <c r="Y98" s="7"/>
-      <c r="Z98" s="7"/>
-      <c r="AA98" s="7"/>
-      <c r="AB98" s="7"/>
-      <c r="AC98" s="7"/>
-      <c r="AD98" s="7"/>
-      <c r="AE98" s="7"/>
-      <c r="AF98" s="7"/>
-      <c r="AG98" s="7"/>
-      <c r="AH98" s="7"/>
-      <c r="AI98" s="7"/>
-      <c r="AJ98" s="7"/>
-      <c r="AK98" s="7"/>
-      <c r="AL98" s="7"/>
-      <c r="AM98" s="7"/>
-      <c r="AN98" s="7"/>
-      <c r="AO98" s="7"/>
-      <c r="AP98" s="7"/>
-      <c r="AQ98" s="7"/>
-      <c r="AR98" s="7"/>
-      <c r="AS98" s="7"/>
-      <c r="AT98" s="7"/>
-      <c r="AU98" s="7"/>
-      <c r="AV98" s="7"/>
-      <c r="AW98" s="7"/>
-      <c r="AX98" s="7"/>
-      <c r="AY98" s="7"/>
-      <c r="AZ98" s="7"/>
-      <c r="BA98" s="7"/>
-      <c r="BB98" s="7"/>
-      <c r="BC98" s="7"/>
-      <c r="BD98" s="7"/>
-      <c r="BE98" s="7"/>
-      <c r="BF98" s="7"/>
-      <c r="BG98" s="7"/>
-      <c r="BH98" s="7"/>
-      <c r="BI98" s="7"/>
-      <c r="BJ98" s="7"/>
-      <c r="BK98" s="7"/>
-      <c r="BL98" s="7"/>
-      <c r="BM98" s="7"/>
-      <c r="BN98" s="7"/>
-      <c r="BO98" s="7"/>
-      <c r="BP98" s="7"/>
-      <c r="BQ98" s="7"/>
-      <c r="BR98" s="7"/>
-      <c r="BS98" s="7"/>
-      <c r="BT98" s="7"/>
-      <c r="BU98" s="7"/>
-      <c r="BV98" s="7"/>
-      <c r="BW98" s="7"/>
-      <c r="BX98" s="7"/>
-      <c r="BY98" s="7"/>
-      <c r="BZ98" s="7"/>
-      <c r="CA98" s="7"/>
-      <c r="CB98" s="7"/>
-      <c r="CC98" s="7"/>
-      <c r="CD98" s="7"/>
-      <c r="CE98" s="7"/>
-      <c r="CF98" s="7"/>
-      <c r="CG98" s="7"/>
-      <c r="CH98" s="7"/>
-      <c r="CI98" s="7"/>
-      <c r="CJ98" s="7"/>
-      <c r="CK98" s="7"/>
-      <c r="CL98" s="7"/>
-      <c r="CM98" s="7"/>
-      <c r="CN98" s="7"/>
-      <c r="CO98" s="7"/>
-      <c r="CP98" s="7"/>
-      <c r="CQ98" s="7"/>
-      <c r="CR98" s="7"/>
-      <c r="CS98" s="7"/>
-      <c r="CT98" s="7"/>
-      <c r="CU98" s="7"/>
-      <c r="CV98" s="7"/>
-      <c r="CW98" s="7"/>
-      <c r="CX98" s="7"/>
-      <c r="CY98" s="7"/>
-      <c r="CZ98" s="7"/>
-      <c r="DA98" s="7"/>
+      <c r="G98" s="12">
+        <v>6</v>
+      </c>
     </row>
     <row r="99" spans="1:105" s="8" customFormat="1" ht="16.5" customHeight="1">
       <c r="A99" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>192</v>
+        <v>315</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>192</v>
+        <v>316</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>193</v>
+        <v>92</v>
       </c>
       <c r="E99" s="19" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F99" s="12">
         <v>10</v>
@@ -6107,19 +6122,19 @@
     </row>
     <row r="100" spans="1:105" s="8" customFormat="1" ht="16.5" customHeight="1">
       <c r="A100" s="13" t="s">
-        <v>319</v>
+        <v>191</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>319</v>
+        <v>192</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>319</v>
+        <v>192</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>99</v>
+        <v>193</v>
       </c>
       <c r="E100" s="19" t="s">
-        <v>340</v>
+        <v>372</v>
       </c>
       <c r="F100" s="12">
         <v>10</v>
@@ -6224,113 +6239,209 @@
       <c r="CZ100" s="7"/>
       <c r="DA100" s="7"/>
     </row>
-    <row r="101" spans="1:105" ht="16.5" customHeight="1">
+    <row r="101" spans="1:105" s="8" customFormat="1" ht="16.5" customHeight="1">
       <c r="A101" s="13" t="s">
-        <v>168</v>
+        <v>317</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>194</v>
+        <v>317</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>194</v>
+        <v>317</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>195</v>
+        <v>99</v>
       </c>
       <c r="E101" s="19" t="s">
-        <v>381</v>
+        <v>338</v>
       </c>
       <c r="F101" s="12">
         <v>10</v>
       </c>
-      <c r="G101" s="12">
-        <v>3</v>
-      </c>
+      <c r="G101" s="12"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="7"/>
+      <c r="J101" s="7"/>
+      <c r="K101" s="7"/>
+      <c r="L101" s="7"/>
+      <c r="M101" s="7"/>
+      <c r="N101" s="7"/>
+      <c r="O101" s="7"/>
+      <c r="P101" s="7"/>
+      <c r="Q101" s="7"/>
+      <c r="R101" s="7"/>
+      <c r="S101" s="7"/>
+      <c r="T101" s="7"/>
+      <c r="U101" s="7"/>
+      <c r="V101" s="7"/>
+      <c r="W101" s="7"/>
+      <c r="X101" s="7"/>
+      <c r="Y101" s="7"/>
+      <c r="Z101" s="7"/>
+      <c r="AA101" s="7"/>
+      <c r="AB101" s="7"/>
+      <c r="AC101" s="7"/>
+      <c r="AD101" s="7"/>
+      <c r="AE101" s="7"/>
+      <c r="AF101" s="7"/>
+      <c r="AG101" s="7"/>
+      <c r="AH101" s="7"/>
+      <c r="AI101" s="7"/>
+      <c r="AJ101" s="7"/>
+      <c r="AK101" s="7"/>
+      <c r="AL101" s="7"/>
+      <c r="AM101" s="7"/>
+      <c r="AN101" s="7"/>
+      <c r="AO101" s="7"/>
+      <c r="AP101" s="7"/>
+      <c r="AQ101" s="7"/>
+      <c r="AR101" s="7"/>
+      <c r="AS101" s="7"/>
+      <c r="AT101" s="7"/>
+      <c r="AU101" s="7"/>
+      <c r="AV101" s="7"/>
+      <c r="AW101" s="7"/>
+      <c r="AX101" s="7"/>
+      <c r="AY101" s="7"/>
+      <c r="AZ101" s="7"/>
+      <c r="BA101" s="7"/>
+      <c r="BB101" s="7"/>
+      <c r="BC101" s="7"/>
+      <c r="BD101" s="7"/>
+      <c r="BE101" s="7"/>
+      <c r="BF101" s="7"/>
+      <c r="BG101" s="7"/>
+      <c r="BH101" s="7"/>
+      <c r="BI101" s="7"/>
+      <c r="BJ101" s="7"/>
+      <c r="BK101" s="7"/>
+      <c r="BL101" s="7"/>
+      <c r="BM101" s="7"/>
+      <c r="BN101" s="7"/>
+      <c r="BO101" s="7"/>
+      <c r="BP101" s="7"/>
+      <c r="BQ101" s="7"/>
+      <c r="BR101" s="7"/>
+      <c r="BS101" s="7"/>
+      <c r="BT101" s="7"/>
+      <c r="BU101" s="7"/>
+      <c r="BV101" s="7"/>
+      <c r="BW101" s="7"/>
+      <c r="BX101" s="7"/>
+      <c r="BY101" s="7"/>
+      <c r="BZ101" s="7"/>
+      <c r="CA101" s="7"/>
+      <c r="CB101" s="7"/>
+      <c r="CC101" s="7"/>
+      <c r="CD101" s="7"/>
+      <c r="CE101" s="7"/>
+      <c r="CF101" s="7"/>
+      <c r="CG101" s="7"/>
+      <c r="CH101" s="7"/>
+      <c r="CI101" s="7"/>
+      <c r="CJ101" s="7"/>
+      <c r="CK101" s="7"/>
+      <c r="CL101" s="7"/>
+      <c r="CM101" s="7"/>
+      <c r="CN101" s="7"/>
+      <c r="CO101" s="7"/>
+      <c r="CP101" s="7"/>
+      <c r="CQ101" s="7"/>
+      <c r="CR101" s="7"/>
+      <c r="CS101" s="7"/>
+      <c r="CT101" s="7"/>
+      <c r="CU101" s="7"/>
+      <c r="CV101" s="7"/>
+      <c r="CW101" s="7"/>
+      <c r="CX101" s="7"/>
+      <c r="CY101" s="7"/>
+      <c r="CZ101" s="7"/>
+      <c r="DA101" s="7"/>
     </row>
     <row r="102" spans="1:105" ht="16.5" customHeight="1">
       <c r="A102" s="13" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E102" s="19" t="s">
-        <v>341</v>
+        <v>379</v>
       </c>
       <c r="F102" s="12">
         <v>10</v>
       </c>
       <c r="G102" s="12">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:105" ht="16.5" customHeight="1">
       <c r="A103" s="13" t="s">
-        <v>320</v>
+        <v>196</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>321</v>
+        <v>196</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>321</v>
+        <v>196</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E103" s="19" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
       <c r="F103" s="12">
         <v>10</v>
       </c>
       <c r="G103" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:105" ht="16.5" customHeight="1">
       <c r="A104" s="13" t="s">
-        <v>199</v>
+        <v>318</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D104" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E104" s="19" t="s">
-        <v>90</v>
+        <v>373</v>
       </c>
       <c r="F104" s="12">
         <v>10</v>
       </c>
       <c r="G104" s="12">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:105" ht="16.5" customHeight="1">
       <c r="A105" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>202</v>
+        <v>320</v>
       </c>
       <c r="D105" s="13" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E105" s="19" t="s">
-        <v>376</v>
+        <v>90</v>
       </c>
       <c r="F105" s="12">
         <v>10</v>
@@ -6339,140 +6450,42 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:105" s="8" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A106" s="13" t="s">
-        <v>81</v>
-      </c>
+    <row r="106" spans="1:105" ht="16.5" customHeight="1">
+      <c r="A106" s="13"/>
       <c r="B106" s="13" t="s">
-        <v>82</v>
+        <v>321</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>83</v>
+        <v>201</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E106" s="19" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F106" s="12">
         <v>10</v>
       </c>
-      <c r="G106" s="12"/>
-      <c r="H106" s="7"/>
-      <c r="I106" s="7"/>
-      <c r="J106" s="7"/>
-      <c r="K106" s="7"/>
-      <c r="L106" s="7"/>
-      <c r="M106" s="7"/>
-      <c r="N106" s="7"/>
-      <c r="O106" s="7"/>
-      <c r="P106" s="7"/>
-      <c r="Q106" s="7"/>
-      <c r="R106" s="7"/>
-      <c r="S106" s="7"/>
-      <c r="T106" s="7"/>
-      <c r="U106" s="7"/>
-      <c r="V106" s="7"/>
-      <c r="W106" s="7"/>
-      <c r="X106" s="7"/>
-      <c r="Y106" s="7"/>
-      <c r="Z106" s="7"/>
-      <c r="AA106" s="7"/>
-      <c r="AB106" s="7"/>
-      <c r="AC106" s="7"/>
-      <c r="AD106" s="7"/>
-      <c r="AE106" s="7"/>
-      <c r="AF106" s="7"/>
-      <c r="AG106" s="7"/>
-      <c r="AH106" s="7"/>
-      <c r="AI106" s="7"/>
-      <c r="AJ106" s="7"/>
-      <c r="AK106" s="7"/>
-      <c r="AL106" s="7"/>
-      <c r="AM106" s="7"/>
-      <c r="AN106" s="7"/>
-      <c r="AO106" s="7"/>
-      <c r="AP106" s="7"/>
-      <c r="AQ106" s="7"/>
-      <c r="AR106" s="7"/>
-      <c r="AS106" s="7"/>
-      <c r="AT106" s="7"/>
-      <c r="AU106" s="7"/>
-      <c r="AV106" s="7"/>
-      <c r="AW106" s="7"/>
-      <c r="AX106" s="7"/>
-      <c r="AY106" s="7"/>
-      <c r="AZ106" s="7"/>
-      <c r="BA106" s="7"/>
-      <c r="BB106" s="7"/>
-      <c r="BC106" s="7"/>
-      <c r="BD106" s="7"/>
-      <c r="BE106" s="7"/>
-      <c r="BF106" s="7"/>
-      <c r="BG106" s="7"/>
-      <c r="BH106" s="7"/>
-      <c r="BI106" s="7"/>
-      <c r="BJ106" s="7"/>
-      <c r="BK106" s="7"/>
-      <c r="BL106" s="7"/>
-      <c r="BM106" s="7"/>
-      <c r="BN106" s="7"/>
-      <c r="BO106" s="7"/>
-      <c r="BP106" s="7"/>
-      <c r="BQ106" s="7"/>
-      <c r="BR106" s="7"/>
-      <c r="BS106" s="7"/>
-      <c r="BT106" s="7"/>
-      <c r="BU106" s="7"/>
-      <c r="BV106" s="7"/>
-      <c r="BW106" s="7"/>
-      <c r="BX106" s="7"/>
-      <c r="BY106" s="7"/>
-      <c r="BZ106" s="7"/>
-      <c r="CA106" s="7"/>
-      <c r="CB106" s="7"/>
-      <c r="CC106" s="7"/>
-      <c r="CD106" s="7"/>
-      <c r="CE106" s="7"/>
-      <c r="CF106" s="7"/>
-      <c r="CG106" s="7"/>
-      <c r="CH106" s="7"/>
-      <c r="CI106" s="7"/>
-      <c r="CJ106" s="7"/>
-      <c r="CK106" s="7"/>
-      <c r="CL106" s="7"/>
-      <c r="CM106" s="7"/>
-      <c r="CN106" s="7"/>
-      <c r="CO106" s="7"/>
-      <c r="CP106" s="7"/>
-      <c r="CQ106" s="7"/>
-      <c r="CR106" s="7"/>
-      <c r="CS106" s="7"/>
-      <c r="CT106" s="7"/>
-      <c r="CU106" s="7"/>
-      <c r="CV106" s="7"/>
-      <c r="CW106" s="7"/>
-      <c r="CX106" s="7"/>
-      <c r="CY106" s="7"/>
-      <c r="CZ106" s="7"/>
-      <c r="DA106" s="7"/>
+      <c r="G106" s="12">
+        <v>3</v>
+      </c>
     </row>
     <row r="107" spans="1:105" s="8" customFormat="1" ht="16.5" customHeight="1">
       <c r="A107" s="13" t="s">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>324</v>
+        <v>82</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>205</v>
+        <v>83</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E107" s="19" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="F107" s="12">
         <v>10</v>
@@ -6577,44 +6590,140 @@
       <c r="CZ107" s="7"/>
       <c r="DA107" s="7"/>
     </row>
-    <row r="108" spans="1:105" ht="16.5" customHeight="1">
-      <c r="A108" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="B108" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="C108" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="D108" s="12" t="s">
-        <v>92</v>
+    <row r="108" spans="1:105" s="8" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A108" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B108" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="D108" s="13" t="s">
+        <v>205</v>
       </c>
       <c r="E108" s="19" t="s">
-        <v>245</v>
+        <v>369</v>
       </c>
       <c r="F108" s="12">
         <v>10</v>
       </c>
-      <c r="G108" s="12">
-        <v>5</v>
-      </c>
+      <c r="G108" s="12"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="7"/>
+      <c r="J108" s="7"/>
+      <c r="K108" s="7"/>
+      <c r="L108" s="7"/>
+      <c r="M108" s="7"/>
+      <c r="N108" s="7"/>
+      <c r="O108" s="7"/>
+      <c r="P108" s="7"/>
+      <c r="Q108" s="7"/>
+      <c r="R108" s="7"/>
+      <c r="S108" s="7"/>
+      <c r="T108" s="7"/>
+      <c r="U108" s="7"/>
+      <c r="V108" s="7"/>
+      <c r="W108" s="7"/>
+      <c r="X108" s="7"/>
+      <c r="Y108" s="7"/>
+      <c r="Z108" s="7"/>
+      <c r="AA108" s="7"/>
+      <c r="AB108" s="7"/>
+      <c r="AC108" s="7"/>
+      <c r="AD108" s="7"/>
+      <c r="AE108" s="7"/>
+      <c r="AF108" s="7"/>
+      <c r="AG108" s="7"/>
+      <c r="AH108" s="7"/>
+      <c r="AI108" s="7"/>
+      <c r="AJ108" s="7"/>
+      <c r="AK108" s="7"/>
+      <c r="AL108" s="7"/>
+      <c r="AM108" s="7"/>
+      <c r="AN108" s="7"/>
+      <c r="AO108" s="7"/>
+      <c r="AP108" s="7"/>
+      <c r="AQ108" s="7"/>
+      <c r="AR108" s="7"/>
+      <c r="AS108" s="7"/>
+      <c r="AT108" s="7"/>
+      <c r="AU108" s="7"/>
+      <c r="AV108" s="7"/>
+      <c r="AW108" s="7"/>
+      <c r="AX108" s="7"/>
+      <c r="AY108" s="7"/>
+      <c r="AZ108" s="7"/>
+      <c r="BA108" s="7"/>
+      <c r="BB108" s="7"/>
+      <c r="BC108" s="7"/>
+      <c r="BD108" s="7"/>
+      <c r="BE108" s="7"/>
+      <c r="BF108" s="7"/>
+      <c r="BG108" s="7"/>
+      <c r="BH108" s="7"/>
+      <c r="BI108" s="7"/>
+      <c r="BJ108" s="7"/>
+      <c r="BK108" s="7"/>
+      <c r="BL108" s="7"/>
+      <c r="BM108" s="7"/>
+      <c r="BN108" s="7"/>
+      <c r="BO108" s="7"/>
+      <c r="BP108" s="7"/>
+      <c r="BQ108" s="7"/>
+      <c r="BR108" s="7"/>
+      <c r="BS108" s="7"/>
+      <c r="BT108" s="7"/>
+      <c r="BU108" s="7"/>
+      <c r="BV108" s="7"/>
+      <c r="BW108" s="7"/>
+      <c r="BX108" s="7"/>
+      <c r="BY108" s="7"/>
+      <c r="BZ108" s="7"/>
+      <c r="CA108" s="7"/>
+      <c r="CB108" s="7"/>
+      <c r="CC108" s="7"/>
+      <c r="CD108" s="7"/>
+      <c r="CE108" s="7"/>
+      <c r="CF108" s="7"/>
+      <c r="CG108" s="7"/>
+      <c r="CH108" s="7"/>
+      <c r="CI108" s="7"/>
+      <c r="CJ108" s="7"/>
+      <c r="CK108" s="7"/>
+      <c r="CL108" s="7"/>
+      <c r="CM108" s="7"/>
+      <c r="CN108" s="7"/>
+      <c r="CO108" s="7"/>
+      <c r="CP108" s="7"/>
+      <c r="CQ108" s="7"/>
+      <c r="CR108" s="7"/>
+      <c r="CS108" s="7"/>
+      <c r="CT108" s="7"/>
+      <c r="CU108" s="7"/>
+      <c r="CV108" s="7"/>
+      <c r="CW108" s="7"/>
+      <c r="CX108" s="7"/>
+      <c r="CY108" s="7"/>
+      <c r="CZ108" s="7"/>
+      <c r="DA108" s="7"/>
     </row>
     <row r="109" spans="1:105" ht="16.5" customHeight="1">
       <c r="A109" s="12" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E109" s="19" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F109" s="12">
         <v>10</v>
@@ -6623,160 +6732,183 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:105" s="8" customFormat="1" ht="16.5" customHeight="1">
+    <row r="110" spans="1:105" ht="16.5" customHeight="1">
       <c r="A110" s="12" t="s">
-        <v>168</v>
+        <v>245</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E110" s="19" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F110" s="12">
         <v>10</v>
       </c>
-      <c r="G110" s="12"/>
-      <c r="H110" s="7"/>
-      <c r="I110" s="7"/>
-      <c r="J110" s="7"/>
-      <c r="K110" s="7"/>
-      <c r="L110" s="7"/>
-      <c r="M110" s="7"/>
-      <c r="N110" s="7"/>
-      <c r="O110" s="7"/>
-      <c r="P110" s="7"/>
-      <c r="Q110" s="7"/>
-      <c r="R110" s="7"/>
-      <c r="S110" s="7"/>
-      <c r="T110" s="7"/>
-      <c r="U110" s="7"/>
-      <c r="V110" s="7"/>
-      <c r="W110" s="7"/>
-      <c r="X110" s="7"/>
-      <c r="Y110" s="7"/>
-      <c r="Z110" s="7"/>
-      <c r="AA110" s="7"/>
-      <c r="AB110" s="7"/>
-      <c r="AC110" s="7"/>
-      <c r="AD110" s="7"/>
-      <c r="AE110" s="7"/>
-      <c r="AF110" s="7"/>
-      <c r="AG110" s="7"/>
-      <c r="AH110" s="7"/>
-      <c r="AI110" s="7"/>
-      <c r="AJ110" s="7"/>
-      <c r="AK110" s="7"/>
-      <c r="AL110" s="7"/>
-      <c r="AM110" s="7"/>
-      <c r="AN110" s="7"/>
-      <c r="AO110" s="7"/>
-      <c r="AP110" s="7"/>
-      <c r="AQ110" s="7"/>
-      <c r="AR110" s="7"/>
-      <c r="AS110" s="7"/>
-      <c r="AT110" s="7"/>
-      <c r="AU110" s="7"/>
-      <c r="AV110" s="7"/>
-      <c r="AW110" s="7"/>
-      <c r="AX110" s="7"/>
-      <c r="AY110" s="7"/>
-      <c r="AZ110" s="7"/>
-      <c r="BA110" s="7"/>
-      <c r="BB110" s="7"/>
-      <c r="BC110" s="7"/>
-      <c r="BD110" s="7"/>
-      <c r="BE110" s="7"/>
-      <c r="BF110" s="7"/>
-      <c r="BG110" s="7"/>
-      <c r="BH110" s="7"/>
-      <c r="BI110" s="7"/>
-      <c r="BJ110" s="7"/>
-      <c r="BK110" s="7"/>
-      <c r="BL110" s="7"/>
-      <c r="BM110" s="7"/>
-      <c r="BN110" s="7"/>
-      <c r="BO110" s="7"/>
-      <c r="BP110" s="7"/>
-      <c r="BQ110" s="7"/>
-      <c r="BR110" s="7"/>
-      <c r="BS110" s="7"/>
-      <c r="BT110" s="7"/>
-      <c r="BU110" s="7"/>
-      <c r="BV110" s="7"/>
-      <c r="BW110" s="7"/>
-      <c r="BX110" s="7"/>
-      <c r="BY110" s="7"/>
-      <c r="BZ110" s="7"/>
-      <c r="CA110" s="7"/>
-      <c r="CB110" s="7"/>
-      <c r="CC110" s="7"/>
-      <c r="CD110" s="7"/>
-      <c r="CE110" s="7"/>
-      <c r="CF110" s="7"/>
-      <c r="CG110" s="7"/>
-      <c r="CH110" s="7"/>
-      <c r="CI110" s="7"/>
-      <c r="CJ110" s="7"/>
-      <c r="CK110" s="7"/>
-      <c r="CL110" s="7"/>
-      <c r="CM110" s="7"/>
-      <c r="CN110" s="7"/>
-      <c r="CO110" s="7"/>
-      <c r="CP110" s="7"/>
-      <c r="CQ110" s="7"/>
-      <c r="CR110" s="7"/>
-      <c r="CS110" s="7"/>
-      <c r="CT110" s="7"/>
-      <c r="CU110" s="7"/>
-      <c r="CV110" s="7"/>
-      <c r="CW110" s="7"/>
-      <c r="CX110" s="7"/>
-      <c r="CY110" s="7"/>
-      <c r="CZ110" s="7"/>
-      <c r="DA110" s="7"/>
-    </row>
-    <row r="111" spans="1:105" ht="21">
-      <c r="A111" s="16" t="s">
+      <c r="G110" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:105" s="8" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A111" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D111" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E111" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="F111" s="12">
+        <v>10</v>
+      </c>
+      <c r="G111" s="12"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="7"/>
+      <c r="J111" s="7"/>
+      <c r="K111" s="7"/>
+      <c r="L111" s="7"/>
+      <c r="M111" s="7"/>
+      <c r="N111" s="7"/>
+      <c r="O111" s="7"/>
+      <c r="P111" s="7"/>
+      <c r="Q111" s="7"/>
+      <c r="R111" s="7"/>
+      <c r="S111" s="7"/>
+      <c r="T111" s="7"/>
+      <c r="U111" s="7"/>
+      <c r="V111" s="7"/>
+      <c r="W111" s="7"/>
+      <c r="X111" s="7"/>
+      <c r="Y111" s="7"/>
+      <c r="Z111" s="7"/>
+      <c r="AA111" s="7"/>
+      <c r="AB111" s="7"/>
+      <c r="AC111" s="7"/>
+      <c r="AD111" s="7"/>
+      <c r="AE111" s="7"/>
+      <c r="AF111" s="7"/>
+      <c r="AG111" s="7"/>
+      <c r="AH111" s="7"/>
+      <c r="AI111" s="7"/>
+      <c r="AJ111" s="7"/>
+      <c r="AK111" s="7"/>
+      <c r="AL111" s="7"/>
+      <c r="AM111" s="7"/>
+      <c r="AN111" s="7"/>
+      <c r="AO111" s="7"/>
+      <c r="AP111" s="7"/>
+      <c r="AQ111" s="7"/>
+      <c r="AR111" s="7"/>
+      <c r="AS111" s="7"/>
+      <c r="AT111" s="7"/>
+      <c r="AU111" s="7"/>
+      <c r="AV111" s="7"/>
+      <c r="AW111" s="7"/>
+      <c r="AX111" s="7"/>
+      <c r="AY111" s="7"/>
+      <c r="AZ111" s="7"/>
+      <c r="BA111" s="7"/>
+      <c r="BB111" s="7"/>
+      <c r="BC111" s="7"/>
+      <c r="BD111" s="7"/>
+      <c r="BE111" s="7"/>
+      <c r="BF111" s="7"/>
+      <c r="BG111" s="7"/>
+      <c r="BH111" s="7"/>
+      <c r="BI111" s="7"/>
+      <c r="BJ111" s="7"/>
+      <c r="BK111" s="7"/>
+      <c r="BL111" s="7"/>
+      <c r="BM111" s="7"/>
+      <c r="BN111" s="7"/>
+      <c r="BO111" s="7"/>
+      <c r="BP111" s="7"/>
+      <c r="BQ111" s="7"/>
+      <c r="BR111" s="7"/>
+      <c r="BS111" s="7"/>
+      <c r="BT111" s="7"/>
+      <c r="BU111" s="7"/>
+      <c r="BV111" s="7"/>
+      <c r="BW111" s="7"/>
+      <c r="BX111" s="7"/>
+      <c r="BY111" s="7"/>
+      <c r="BZ111" s="7"/>
+      <c r="CA111" s="7"/>
+      <c r="CB111" s="7"/>
+      <c r="CC111" s="7"/>
+      <c r="CD111" s="7"/>
+      <c r="CE111" s="7"/>
+      <c r="CF111" s="7"/>
+      <c r="CG111" s="7"/>
+      <c r="CH111" s="7"/>
+      <c r="CI111" s="7"/>
+      <c r="CJ111" s="7"/>
+      <c r="CK111" s="7"/>
+      <c r="CL111" s="7"/>
+      <c r="CM111" s="7"/>
+      <c r="CN111" s="7"/>
+      <c r="CO111" s="7"/>
+      <c r="CP111" s="7"/>
+      <c r="CQ111" s="7"/>
+      <c r="CR111" s="7"/>
+      <c r="CS111" s="7"/>
+      <c r="CT111" s="7"/>
+      <c r="CU111" s="7"/>
+      <c r="CV111" s="7"/>
+      <c r="CW111" s="7"/>
+      <c r="CX111" s="7"/>
+      <c r="CY111" s="7"/>
+      <c r="CZ111" s="7"/>
+      <c r="DA111" s="7"/>
+    </row>
+    <row r="112" spans="1:105" ht="21">
+      <c r="A112" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="B112" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="D112" s="16" t="s">
         <v>347</v>
-      </c>
-      <c r="B111" s="26" t="s">
-        <v>407</v>
-      </c>
-      <c r="C111" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="D111" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="E111" s="19"/>
-      <c r="F111" s="15">
-        <v>2</v>
-      </c>
-      <c r="G111" s="17"/>
-    </row>
-    <row r="112" spans="1:105">
-      <c r="A112" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="B112" s="15"/>
-      <c r="C112" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="D112" s="16" t="s">
-        <v>349</v>
       </c>
       <c r="E112" s="19"/>
       <c r="F112" s="15">
+        <v>2</v>
+      </c>
+      <c r="G112" s="17"/>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="B113" s="15"/>
+      <c r="C113" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="D113" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="E113" s="19"/>
+      <c r="F113" s="15">
         <v>100</v>
       </c>
-      <c r="G112" s="17"/>
+      <c r="G113" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/物料清单汇总/所有物料10.30下午.xlsx
+++ b/物料清单汇总/所有物料10.30下午.xlsx
@@ -208,9 +208,6 @@
   </si>
   <si>
     <t>贴片电阻</t>
-  </si>
-  <si>
-    <t>22Ω</t>
   </si>
   <si>
     <t>Res Semi</t>
@@ -1643,6 +1640,10 @@
   </si>
   <si>
     <t>510Ω</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22Ω</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2196,8 +2197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DA113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="B43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2215,7 +2216,7 @@
   <sheetData>
     <row r="1" spans="1:105" s="4" customFormat="1" ht="16.5" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2230,10 +2231,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
@@ -2354,7 +2355,7 @@
         <v>600</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:105" ht="16.5" customHeight="1">
@@ -2400,7 +2401,7 @@
         <v>300</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:105" ht="16.5" customHeight="1">
@@ -2423,7 +2424,7 @@
         <v>600</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:105" ht="16.5" customHeight="1">
@@ -2431,13 +2432,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>8</v>
@@ -2454,13 +2455,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>8</v>
@@ -2469,7 +2470,7 @@
         <v>300</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:105" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -2477,13 +2478,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>8</v>
@@ -2596,13 +2597,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>8</v>
@@ -2611,7 +2612,7 @@
         <v>600</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:105" ht="16.5" customHeight="1">
@@ -2619,13 +2620,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>8</v>
@@ -2642,13 +2643,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>8</v>
@@ -2688,13 +2689,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>8</v>
@@ -2711,13 +2712,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>8</v>
@@ -2731,19 +2732,19 @@
     </row>
     <row r="15" spans="1:105" ht="16.5" customHeight="1">
       <c r="A15" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F15" s="12">
         <v>300</v>
@@ -2754,19 +2755,19 @@
     </row>
     <row r="16" spans="1:105" s="8" customFormat="1" ht="16.5" customHeight="1">
       <c r="A16" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="D16" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>207</v>
-      </c>
       <c r="E16" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F16" s="12">
         <v>100</v>
@@ -2873,19 +2874,19 @@
     </row>
     <row r="17" spans="1:105" ht="16.5" customHeight="1">
       <c r="A17" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E17" s="19" t="s">
         <v>400</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>401</v>
       </c>
       <c r="F17" s="12">
         <v>10</v>
@@ -2896,7 +2897,7 @@
     </row>
     <row r="18" spans="1:105" ht="16.5" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>40</v>
@@ -2925,7 +2926,7 @@
         <v>60</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>61</v>
@@ -2937,21 +2938,21 @@
         <v>300</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:105" ht="45">
       <c r="A20" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="D20" s="24" t="s">
         <v>64</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>65</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>62</v>
@@ -2965,16 +2966,16 @@
     </row>
     <row r="21" spans="1:105" ht="16.5" customHeight="1">
       <c r="A21" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B21" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="D21" s="12" t="s">
         <v>67</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>68</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>62</v>
@@ -2983,7 +2984,7 @@
         <v>300</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:105" ht="16.5" customHeight="1">
@@ -2991,13 +2992,13 @@
         <v>39</v>
       </c>
       <c r="B22" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>69</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>70</v>
       </c>
       <c r="E22" s="19" t="s">
         <v>62</v>
@@ -3014,13 +3015,13 @@
         <v>39</v>
       </c>
       <c r="B23" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>72</v>
       </c>
       <c r="E23" s="19" t="s">
         <v>62</v>
@@ -3037,13 +3038,13 @@
         <v>39</v>
       </c>
       <c r="B24" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="24" t="s">
         <v>73</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>74</v>
       </c>
       <c r="E24" s="19" t="s">
         <v>62</v>
@@ -3060,16 +3061,16 @@
         <v>39</v>
       </c>
       <c r="B25" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="12" t="s">
+      <c r="E25" s="19" t="s">
         <v>76</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>77</v>
       </c>
       <c r="F25" s="12">
         <v>300</v>
@@ -3080,19 +3081,19 @@
     </row>
     <row r="26" spans="1:105" ht="16.5" customHeight="1">
       <c r="A26" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F26" s="12">
         <v>300</v>
@@ -3101,19 +3102,19 @@
     </row>
     <row r="27" spans="1:105" ht="16.5" customHeight="1">
       <c r="A27" s="27" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
@@ -3221,13 +3222,13 @@
         <v>39</v>
       </c>
       <c r="B28" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="12" t="s">
         <v>240</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>241</v>
       </c>
       <c r="E28" s="19" t="s">
         <v>62</v>
@@ -3244,13 +3245,13 @@
         <v>39</v>
       </c>
       <c r="B29" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>273</v>
-      </c>
       <c r="D29" s="22" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E29" s="19" t="s">
         <v>62</v>
@@ -3264,42 +3265,42 @@
     </row>
     <row r="30" spans="1:105" ht="16.5" customHeight="1">
       <c r="A30" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="D30" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>275</v>
-      </c>
       <c r="E30" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F30" s="12">
         <v>300</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:105" ht="16.5" customHeight="1">
       <c r="A31" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C31" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="D31" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="D31" s="12" t="s">
-        <v>278</v>
-      </c>
       <c r="E31" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F31" s="12">
         <v>300</v>
@@ -3313,16 +3314,16 @@
         <v>39</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F32" s="12">
         <v>300</v>
@@ -3336,16 +3337,16 @@
         <v>39</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C33" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D33" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="D33" s="13" t="s">
-        <v>172</v>
-      </c>
       <c r="E33" s="19" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F33" s="12">
         <v>300</v>
@@ -3359,16 +3360,16 @@
         <v>39</v>
       </c>
       <c r="B34" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="C34" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>174</v>
-      </c>
       <c r="E34" s="19" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F34" s="12">
         <v>300</v>
@@ -3382,16 +3383,16 @@
         <v>39</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F35" s="12">
         <v>300</v>
@@ -3405,16 +3406,16 @@
         <v>39</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F36" s="12">
         <v>300</v>
@@ -3425,19 +3426,19 @@
     </row>
     <row r="37" spans="1:105" ht="16.5" customHeight="1">
       <c r="A37" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F37" s="12">
         <v>300</v>
@@ -3451,16 +3452,16 @@
         <v>39</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F38" s="12">
         <v>300</v>
@@ -3474,16 +3475,16 @@
         <v>39</v>
       </c>
       <c r="B39" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="C39" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="C39" s="12" t="s">
-        <v>286</v>
-      </c>
       <c r="D39" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F39" s="12">
         <v>300</v>
@@ -3497,16 +3498,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="C40" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="C40" s="12" t="s">
-        <v>288</v>
-      </c>
       <c r="D40" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F40" s="12">
         <v>300</v>
@@ -3520,16 +3521,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F41" s="12">
         <v>300</v>
@@ -3543,16 +3544,16 @@
         <v>39</v>
       </c>
       <c r="B42" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C42" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="C42" s="12" t="s">
-        <v>291</v>
-      </c>
       <c r="D42" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F42" s="12">
         <v>300</v>
@@ -3566,16 +3567,16 @@
         <v>39</v>
       </c>
       <c r="B43" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="C43" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="C43" s="12" t="s">
-        <v>293</v>
-      </c>
       <c r="D43" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F43" s="12">
         <v>300</v>
@@ -3586,19 +3587,19 @@
     </row>
     <row r="44" spans="1:105" s="8" customFormat="1" ht="16.5" customHeight="1">
       <c r="A44" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B44" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="D44" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D44" s="12" t="s">
-        <v>80</v>
-      </c>
       <c r="E44" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F44" s="12">
         <v>300</v>
@@ -3705,19 +3706,19 @@
     </row>
     <row r="45" spans="1:105" ht="16.5" customHeight="1">
       <c r="A45" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="C45" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="B45" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>314</v>
-      </c>
       <c r="D45" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F45" s="12">
         <v>300</v>
@@ -3728,19 +3729,19 @@
     </row>
     <row r="46" spans="1:105" ht="16.5" customHeight="1">
       <c r="A46" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="D46" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="B46" s="14" t="s">
-        <v>393</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>186</v>
-      </c>
       <c r="E46" s="19" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F46" s="12">
         <v>300</v>
@@ -3751,19 +3752,19 @@
     </row>
     <row r="47" spans="1:105" ht="16.5" customHeight="1">
       <c r="A47" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="C47" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="D47" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="C47" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>304</v>
-      </c>
       <c r="E47" s="19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F47" s="12">
         <v>10</v>
@@ -3780,13 +3781,13 @@
         <v>16</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F48" s="12">
         <v>300</v>
@@ -3797,19 +3798,19 @@
     </row>
     <row r="49" spans="1:105" ht="16.5" customHeight="1">
       <c r="A49" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D49" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="B49" s="14" t="s">
-        <v>390</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>123</v>
-      </c>
       <c r="E49" s="19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F49" s="12">
         <v>100</v>
@@ -3820,19 +3821,19 @@
     </row>
     <row r="50" spans="1:105" ht="16.5" customHeight="1">
       <c r="A50" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="B50" s="12" t="s">
         <v>295</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>296</v>
       </c>
       <c r="C50" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F50" s="12">
         <v>100</v>
@@ -3846,7 +3847,7 @@
         <v>15</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C51" s="13" t="s">
         <v>20</v>
@@ -3855,7 +3856,7 @@
         <v>21</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F51" s="12">
         <v>100</v>
@@ -3869,16 +3870,16 @@
         <v>15</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F52" s="12">
         <v>100</v>
@@ -3889,19 +3890,19 @@
     </row>
     <row r="53" spans="1:105" ht="16.5" customHeight="1">
       <c r="A53" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B53" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="C53" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="C53" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>210</v>
-      </c>
       <c r="E53" s="19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F53" s="12">
         <v>100</v>
@@ -3912,19 +3913,19 @@
     </row>
     <row r="54" spans="1:105" ht="16.5" customHeight="1">
       <c r="A54" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="C54" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="B54" s="14" t="s">
-        <v>356</v>
-      </c>
-      <c r="C54" s="12" t="s">
+      <c r="D54" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="D54" s="12" t="s">
-        <v>213</v>
-      </c>
       <c r="E54" s="19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F54" s="12">
         <v>100</v>
@@ -3935,19 +3936,19 @@
     </row>
     <row r="55" spans="1:105" ht="16.5" customHeight="1">
       <c r="A55" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C55" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="E55" s="19" t="s">
         <v>101</v>
-      </c>
-      <c r="E55" s="19" t="s">
-        <v>102</v>
       </c>
       <c r="F55" s="12">
         <v>10</v>
@@ -3958,19 +3959,19 @@
     </row>
     <row r="56" spans="1:105" ht="16.5" customHeight="1">
       <c r="A56" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B56" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D56" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C56" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D56" s="12" t="s">
+      <c r="E56" s="19" t="s">
         <v>105</v>
-      </c>
-      <c r="E56" s="19" t="s">
-        <v>106</v>
       </c>
       <c r="F56" s="12">
         <v>10</v>
@@ -3981,19 +3982,19 @@
     </row>
     <row r="57" spans="1:105" ht="16.5" customHeight="1">
       <c r="A57" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D57" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="B57" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D57" s="12" t="s">
+      <c r="E57" s="19" t="s">
         <v>108</v>
-      </c>
-      <c r="E57" s="19" t="s">
-        <v>109</v>
       </c>
       <c r="F57" s="12">
         <v>10</v>
@@ -4007,7 +4008,7 @@
         <v>44</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>45</v>
@@ -4030,16 +4031,16 @@
         <v>44</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D59" s="21" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F59" s="12">
         <v>300</v>
@@ -4050,19 +4051,19 @@
     </row>
     <row r="60" spans="1:105" ht="16.5" customHeight="1">
       <c r="A60" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B60" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="C60" s="12" t="s">
         <v>220</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>221</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>46</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F60" s="12">
         <v>100</v>
@@ -4073,19 +4074,19 @@
     </row>
     <row r="61" spans="1:105" ht="16.5" customHeight="1">
       <c r="A61" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B61" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="D61" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="C61" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="D61" s="12" t="s">
+      <c r="E61" s="19" t="s">
         <v>224</v>
-      </c>
-      <c r="E61" s="19" t="s">
-        <v>225</v>
       </c>
       <c r="F61" s="12">
         <v>100</v>
@@ -4096,19 +4097,19 @@
     </row>
     <row r="62" spans="1:105" ht="16.5" customHeight="1">
       <c r="A62" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B62" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="C62" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="D62" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C62" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>130</v>
-      </c>
       <c r="E62" s="19" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F62" s="12">
         <v>50</v>
@@ -4119,19 +4120,19 @@
     </row>
     <row r="63" spans="1:105" ht="16.5" customHeight="1">
       <c r="A63" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="B63" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="C63" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D63" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="C63" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="D63" s="12" t="s">
+      <c r="E63" s="19" t="s">
         <v>216</v>
-      </c>
-      <c r="E63" s="19" t="s">
-        <v>217</v>
       </c>
       <c r="F63" s="12">
         <v>100</v>
@@ -4142,19 +4143,19 @@
     </row>
     <row r="64" spans="1:105" s="8" customFormat="1" ht="16.5" customHeight="1">
       <c r="A64" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B64" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="C64" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="C64" s="13" t="s">
-        <v>133</v>
-      </c>
       <c r="D64" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F64" s="12">
         <v>10</v>
@@ -4261,19 +4262,19 @@
     </row>
     <row r="65" spans="1:105" ht="16.5" customHeight="1">
       <c r="A65" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="C65" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="B65" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="C65" s="13" t="s">
+      <c r="D65" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="D65" s="13" t="s">
-        <v>136</v>
-      </c>
       <c r="E65" s="19" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F65" s="12">
         <v>10</v>
@@ -4284,19 +4285,19 @@
     </row>
     <row r="66" spans="1:105" ht="16.5" customHeight="1">
       <c r="A66" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B66" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C66" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="D66" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="D66" s="13" t="s">
-        <v>139</v>
-      </c>
       <c r="E66" s="19" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F66" s="12">
         <v>10</v>
@@ -4307,19 +4308,19 @@
     </row>
     <row r="67" spans="1:105" ht="16.5" customHeight="1">
       <c r="A67" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B67" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D67" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="C67" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="D67" s="13" t="s">
-        <v>141</v>
-      </c>
       <c r="E67" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F67" s="12">
         <v>10</v>
@@ -4330,19 +4331,19 @@
     </row>
     <row r="68" spans="1:105" ht="16.5" customHeight="1">
       <c r="A68" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B68" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="C68" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="C68" s="13" t="s">
-        <v>302</v>
-      </c>
       <c r="D68" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E68" s="19" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F68" s="12">
         <v>10</v>
@@ -4353,42 +4354,42 @@
     </row>
     <row r="69" spans="1:105" ht="16.5" customHeight="1">
       <c r="A69" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="B69" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="C69" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="D69" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="D69" s="12" t="s">
+      <c r="E69" s="19" t="s">
         <v>254</v>
-      </c>
-      <c r="E69" s="19" t="s">
-        <v>255</v>
       </c>
       <c r="F69" s="12">
         <v>300</v>
       </c>
       <c r="G69" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="70" spans="1:105" s="8" customFormat="1" ht="16.5" customHeight="1">
       <c r="A70" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C70" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="B70" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C70" s="13" t="s">
+      <c r="D70" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="D70" s="13" t="s">
-        <v>148</v>
-      </c>
       <c r="E70" s="19" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F70" s="12">
         <v>10</v>
@@ -4495,19 +4496,19 @@
     </row>
     <row r="71" spans="1:105" ht="16.5" customHeight="1">
       <c r="A71" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B71" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="B71" s="13" t="s">
+      <c r="C71" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="D71" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="D71" s="13" t="s">
-        <v>152</v>
-      </c>
       <c r="E71" s="19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F71" s="12">
         <v>10</v>
@@ -4518,19 +4519,19 @@
     </row>
     <row r="72" spans="1:105" ht="33.75">
       <c r="A72" s="13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E72" s="19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F72" s="12">
         <v>80</v>
@@ -4541,19 +4542,19 @@
     </row>
     <row r="73" spans="1:105" s="8" customFormat="1" ht="16.5" customHeight="1">
       <c r="A73" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="B73" s="13" t="s">
         <v>310</v>
-      </c>
-      <c r="B73" s="13" t="s">
-        <v>311</v>
       </c>
       <c r="C73" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E73" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F73" s="12">
         <v>10</v>
@@ -4660,19 +4661,19 @@
     </row>
     <row r="74" spans="1:105" ht="16.5" customHeight="1">
       <c r="A74" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B74" s="12" t="s">
         <v>157</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>158</v>
       </c>
       <c r="C74" s="12" t="s">
         <v>41</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E74" s="19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F74" s="12">
         <v>100</v>
@@ -4692,10 +4693,10 @@
         <v>57</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E75" s="19" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F75" s="12">
         <v>10</v>
@@ -4802,19 +4803,19 @@
     </row>
     <row r="76" spans="1:105" ht="16.5" customHeight="1">
       <c r="A76" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B76" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="B76" s="13" t="s">
-        <v>161</v>
-      </c>
       <c r="C76" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D76" s="13" t="s">
         <v>58</v>
       </c>
       <c r="E76" s="19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F76" s="12">
         <v>10</v>
@@ -4825,7 +4826,7 @@
     </row>
     <row r="77" spans="1:105" ht="16.5" customHeight="1">
       <c r="A77" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B77" s="12" t="s">
         <v>22</v>
@@ -5013,19 +5014,19 @@
     </row>
     <row r="81" spans="1:105" ht="16.5" customHeight="1">
       <c r="A81" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C81" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D81" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="D81" s="12" t="s">
-        <v>227</v>
-      </c>
       <c r="E81" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F81" s="12">
         <v>10</v>
@@ -5036,19 +5037,19 @@
     </row>
     <row r="82" spans="1:105" ht="16.5" customHeight="1">
       <c r="A82" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="B82" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="B82" s="12" t="s">
+      <c r="C82" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="C82" s="12" t="s">
+      <c r="D82" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E82" s="19" t="s">
         <v>230</v>
-      </c>
-      <c r="D82" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="E82" s="19" t="s">
-        <v>231</v>
       </c>
       <c r="F82" s="12">
         <v>10</v>
@@ -5059,19 +5060,19 @@
     </row>
     <row r="83" spans="1:105" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A83" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B83" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C83" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D83" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D83" s="13" t="s">
-        <v>167</v>
-      </c>
       <c r="E83" s="19" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F83" s="12">
         <v>10</v>
@@ -5178,19 +5179,19 @@
     </row>
     <row r="84" spans="1:105" ht="16.5" customHeight="1">
       <c r="A84" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="B84" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="B84" s="12" t="s">
+      <c r="C84" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="D84" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="C84" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="D84" s="12" t="s">
-        <v>234</v>
-      </c>
       <c r="E84" s="19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F84" s="12">
         <v>10</v>
@@ -5201,19 +5202,19 @@
     </row>
     <row r="85" spans="1:105" ht="16.5" customHeight="1">
       <c r="A85" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="B85" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="C85" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="D85" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="C85" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="D85" s="12" t="s">
+      <c r="E85" s="19" t="s">
         <v>237</v>
-      </c>
-      <c r="E85" s="19" t="s">
-        <v>238</v>
       </c>
       <c r="F85" s="12">
         <v>10</v>
@@ -5224,19 +5225,19 @@
     </row>
     <row r="86" spans="1:105" ht="16.5" customHeight="1">
       <c r="A86" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B86" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="B86" s="13" t="s">
+      <c r="C86" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D86" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C86" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="D86" s="13" t="s">
-        <v>164</v>
-      </c>
       <c r="E86" s="19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F86" s="12">
         <v>10</v>
@@ -5531,19 +5532,19 @@
     </row>
     <row r="91" spans="1:105" s="8" customFormat="1" ht="16.5" customHeight="1">
       <c r="A91" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="C91" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="B91" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="C91" s="13" t="s">
+      <c r="D91" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="D91" s="13" t="s">
-        <v>170</v>
-      </c>
       <c r="E91" s="19" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F91" s="12">
         <v>10</v>
@@ -5650,19 +5651,19 @@
     </row>
     <row r="92" spans="1:105" ht="16.5" customHeight="1">
       <c r="A92" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B92" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B92" s="13" t="s">
+      <c r="C92" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D92" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C92" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D92" s="13" t="s">
-        <v>99</v>
-      </c>
       <c r="E92" s="19" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F92" s="12">
         <v>10</v>
@@ -5673,19 +5674,19 @@
     </row>
     <row r="93" spans="1:105" s="8" customFormat="1" ht="16.5" customHeight="1">
       <c r="A93" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B93" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B93" s="12" t="s">
+      <c r="C93" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="12" t="s">
+      <c r="D93" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D93" s="12" t="s">
+      <c r="E93" s="19" t="s">
         <v>84</v>
-      </c>
-      <c r="E93" s="19" t="s">
-        <v>85</v>
       </c>
       <c r="F93" s="12">
         <v>10</v>
@@ -5792,19 +5793,19 @@
     </row>
     <row r="94" spans="1:105" ht="16.5" customHeight="1">
       <c r="A94" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B94" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B94" s="12" t="s">
+      <c r="C94" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C94" s="12" t="s">
+      <c r="D94" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D94" s="12" t="s">
+      <c r="E94" s="19" t="s">
         <v>89</v>
-      </c>
-      <c r="E94" s="19" t="s">
-        <v>90</v>
       </c>
       <c r="F94" s="12">
         <v>10</v>
@@ -5815,19 +5816,19 @@
     </row>
     <row r="95" spans="1:105" ht="16.5" customHeight="1">
       <c r="A95" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="C95" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="D95" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B95" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="C95" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="D95" s="12" t="s">
+      <c r="E95" s="19" t="s">
         <v>92</v>
-      </c>
-      <c r="E95" s="19" t="s">
-        <v>93</v>
       </c>
       <c r="F95" s="12">
         <v>10</v>
@@ -5838,19 +5839,19 @@
     </row>
     <row r="96" spans="1:105" ht="16.5" customHeight="1">
       <c r="A96" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B96" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B96" s="12" t="s">
+      <c r="C96" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D96" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C96" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D96" s="12" t="s">
-        <v>96</v>
-      </c>
       <c r="E96" s="19" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F96" s="12">
         <v>10</v>
@@ -5861,19 +5862,19 @@
     </row>
     <row r="97" spans="1:105" s="8" customFormat="1" ht="16.5" customHeight="1">
       <c r="A97" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B97" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="C97" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="C97" s="13" t="s">
+      <c r="D97" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="D97" s="13" t="s">
-        <v>307</v>
-      </c>
       <c r="E97" s="19" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F97" s="12">
         <v>10</v>
@@ -5980,19 +5981,19 @@
     </row>
     <row r="98" spans="1:105" ht="16.5" customHeight="1">
       <c r="A98" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="B98" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="B98" s="13" t="s">
+      <c r="C98" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D98" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="C98" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="D98" s="13" t="s">
-        <v>189</v>
-      </c>
       <c r="E98" s="19" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F98" s="12">
         <v>10</v>
@@ -6003,19 +6004,19 @@
     </row>
     <row r="99" spans="1:105" s="8" customFormat="1" ht="16.5" customHeight="1">
       <c r="A99" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B99" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="C99" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="C99" s="13" t="s">
-        <v>316</v>
-      </c>
       <c r="D99" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E99" s="19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F99" s="12">
         <v>10</v>
@@ -6122,19 +6123,19 @@
     </row>
     <row r="100" spans="1:105" s="8" customFormat="1" ht="16.5" customHeight="1">
       <c r="A100" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B100" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="B100" s="13" t="s">
+      <c r="C100" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D100" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="C100" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="D100" s="13" t="s">
-        <v>193</v>
-      </c>
       <c r="E100" s="19" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F100" s="12">
         <v>10</v>
@@ -6241,19 +6242,19 @@
     </row>
     <row r="101" spans="1:105" s="8" customFormat="1" ht="16.5" customHeight="1">
       <c r="A101" s="13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E101" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F101" s="12">
         <v>10</v>
@@ -6360,19 +6361,19 @@
     </row>
     <row r="102" spans="1:105" ht="16.5" customHeight="1">
       <c r="A102" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B102" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="D102" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="C102" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="D102" s="13" t="s">
-        <v>195</v>
-      </c>
       <c r="E102" s="19" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F102" s="12">
         <v>10</v>
@@ -6383,19 +6384,19 @@
     </row>
     <row r="103" spans="1:105" ht="16.5" customHeight="1">
       <c r="A103" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="D103" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="B103" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="C103" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="D103" s="13" t="s">
-        <v>197</v>
-      </c>
       <c r="E103" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F103" s="12">
         <v>10</v>
@@ -6406,19 +6407,19 @@
     </row>
     <row r="104" spans="1:105" ht="16.5" customHeight="1">
       <c r="A104" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="B104" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="B104" s="13" t="s">
-        <v>319</v>
-      </c>
       <c r="C104" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D104" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E104" s="19" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F104" s="12">
         <v>10</v>
@@ -6429,19 +6430,19 @@
     </row>
     <row r="105" spans="1:105" ht="16.5" customHeight="1">
       <c r="A105" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="D105" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="B105" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="C105" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="D105" s="13" t="s">
-        <v>200</v>
-      </c>
       <c r="E105" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F105" s="12">
         <v>10</v>
@@ -6453,16 +6454,16 @@
     <row r="106" spans="1:105" ht="16.5" customHeight="1">
       <c r="A106" s="13"/>
       <c r="B106" s="13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C106" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="D106" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="D106" s="13" t="s">
-        <v>202</v>
-      </c>
       <c r="E106" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F106" s="12">
         <v>10</v>
@@ -6473,19 +6474,19 @@
     </row>
     <row r="107" spans="1:105" s="8" customFormat="1" ht="16.5" customHeight="1">
       <c r="A107" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B107" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B107" s="13" t="s">
+      <c r="C107" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C107" s="13" t="s">
-        <v>83</v>
-      </c>
       <c r="D107" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E107" s="19" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F107" s="12">
         <v>10</v>
@@ -6592,19 +6593,19 @@
     </row>
     <row r="108" spans="1:105" s="8" customFormat="1" ht="16.5" customHeight="1">
       <c r="A108" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C108" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D108" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="D108" s="13" t="s">
-        <v>205</v>
-      </c>
       <c r="E108" s="19" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F108" s="12">
         <v>10</v>
@@ -6711,19 +6712,19 @@
     </row>
     <row r="109" spans="1:105" ht="16.5" customHeight="1">
       <c r="A109" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="B109" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="B109" s="12" t="s">
+      <c r="C109" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D109" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E109" s="19" t="s">
         <v>243</v>
-      </c>
-      <c r="C109" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="D109" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E109" s="19" t="s">
-        <v>244</v>
       </c>
       <c r="F109" s="12">
         <v>10</v>
@@ -6734,19 +6735,19 @@
     </row>
     <row r="110" spans="1:105" ht="16.5" customHeight="1">
       <c r="A110" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="B110" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="B110" s="12" t="s">
+      <c r="C110" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E110" s="19" t="s">
         <v>246</v>
-      </c>
-      <c r="C110" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="D110" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="E110" s="19" t="s">
-        <v>247</v>
       </c>
       <c r="F110" s="12">
         <v>10</v>
@@ -6757,19 +6758,19 @@
     </row>
     <row r="111" spans="1:105" s="8" customFormat="1" ht="16.5" customHeight="1">
       <c r="A111" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B111" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C111" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="C111" s="12" t="s">
+      <c r="D111" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E111" s="19" t="s">
         <v>249</v>
-      </c>
-      <c r="D111" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E111" s="19" t="s">
-        <v>250</v>
       </c>
       <c r="F111" s="12">
         <v>10</v>
@@ -6876,16 +6877,16 @@
     </row>
     <row r="112" spans="1:105" ht="21">
       <c r="A112" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="B112" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="C112" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="B112" s="26" t="s">
-        <v>405</v>
-      </c>
-      <c r="C112" s="16" t="s">
+      <c r="D112" s="16" t="s">
         <v>346</v>
-      </c>
-      <c r="D112" s="16" t="s">
-        <v>347</v>
       </c>
       <c r="E112" s="19"/>
       <c r="F112" s="15">
@@ -6895,14 +6896,14 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B113" s="15"/>
       <c r="C113" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D113" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E113" s="19"/>
       <c r="F113" s="15">
